--- a/survivalAnalysisCode/preds.xlsx
+++ b/survivalAnalysisCode/preds.xlsx
@@ -1126,10 +1126,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="C17">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D17">
         <v>0.9999999999999999</v>
@@ -1144,28 +1144,28 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="H17">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="I17">
-        <v>0.9999999999999999</v>
+        <v>0.9591234237739618</v>
       </c>
       <c r="J17">
         <v>0.9999999999999999</v>
       </c>
       <c r="K17">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
       <c r="L17">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="M17">
-        <v>0.9999999999999999</v>
+        <v>0.9590220961856024</v>
       </c>
       <c r="N17">
         <v>0.9999999999999999</v>
       </c>
       <c r="O17">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,10 +1173,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="C18">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D18">
         <v>0.9999999999999999</v>
@@ -1191,28 +1191,28 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="H18">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="I18">
-        <v>0.9999999999999999</v>
+        <v>0.9591234237739618</v>
       </c>
       <c r="J18">
         <v>0.9999999999999999</v>
       </c>
       <c r="K18">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
       <c r="L18">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="M18">
-        <v>0.9999999999999999</v>
+        <v>0.9590220961856024</v>
       </c>
       <c r="N18">
         <v>0.9999999999999999</v>
       </c>
       <c r="O18">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,10 +1220,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="C19">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D19">
         <v>0.9999999999999999</v>
@@ -1238,28 +1238,28 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="H19">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="I19">
-        <v>0.9999999999999999</v>
+        <v>0.9591234237739618</v>
       </c>
       <c r="J19">
         <v>0.9999999999999999</v>
       </c>
       <c r="K19">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
       <c r="L19">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="M19">
-        <v>0.9999999999999999</v>
+        <v>0.9590220961856024</v>
       </c>
       <c r="N19">
         <v>0.9999999999999999</v>
       </c>
       <c r="O19">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="C20">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D20">
         <v>0.9999999999999999</v>
@@ -1285,28 +1285,28 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="H20">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="I20">
-        <v>0.9999999999999999</v>
+        <v>0.9591234237739618</v>
       </c>
       <c r="J20">
         <v>0.9999999999999999</v>
       </c>
       <c r="K20">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
       <c r="L20">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="M20">
-        <v>0.9999999999999999</v>
+        <v>0.9590220961856024</v>
       </c>
       <c r="N20">
         <v>0.9999999999999999</v>
       </c>
       <c r="O20">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,10 +1314,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="C21">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D21">
         <v>0.9999999999999999</v>
@@ -1332,28 +1332,28 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="H21">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="I21">
-        <v>0.9999999999999999</v>
+        <v>0.9591234237739618</v>
       </c>
       <c r="J21">
         <v>0.9999999999999999</v>
       </c>
       <c r="K21">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
       <c r="L21">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="M21">
-        <v>0.9999999999999999</v>
+        <v>0.9590220961856024</v>
       </c>
       <c r="N21">
         <v>0.9999999999999999</v>
       </c>
       <c r="O21">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,10 +1361,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="C22">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D22">
         <v>0.9999999999999999</v>
@@ -1379,28 +1379,28 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="H22">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="I22">
-        <v>0.9999999999999999</v>
+        <v>0.9591234237739618</v>
       </c>
       <c r="J22">
         <v>0.9999999999999999</v>
       </c>
       <c r="K22">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
       <c r="L22">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="M22">
-        <v>0.9999999999999999</v>
+        <v>0.9590220961856024</v>
       </c>
       <c r="N22">
         <v>0.9999999999999999</v>
       </c>
       <c r="O22">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,10 +1408,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="C23">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D23">
         <v>0.9999999999999999</v>
@@ -1426,28 +1426,28 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="H23">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="I23">
-        <v>0.9999999999999999</v>
+        <v>0.9591234237739618</v>
       </c>
       <c r="J23">
         <v>0.9999999999999999</v>
       </c>
       <c r="K23">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
       <c r="L23">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="M23">
-        <v>0.9999999999999999</v>
+        <v>0.9590220961856024</v>
       </c>
       <c r="N23">
         <v>0.9999999999999999</v>
       </c>
       <c r="O23">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,10 +1455,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="C24">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D24">
         <v>0.9999999999999999</v>
@@ -1473,28 +1473,28 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="H24">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="I24">
-        <v>0.9999999999999999</v>
+        <v>0.9591234237739618</v>
       </c>
       <c r="J24">
         <v>0.9999999999999999</v>
       </c>
       <c r="K24">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
       <c r="L24">
-        <v>0.9999999999999999</v>
+        <v>0.9469374797241346</v>
       </c>
       <c r="M24">
-        <v>0.9999999999999999</v>
+        <v>0.9590220961856024</v>
       </c>
       <c r="N24">
         <v>0.9999999999999999</v>
       </c>
       <c r="O24">
-        <v>0.9999999999999999</v>
+        <v>0.9737687106475087</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="C25">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D25">
-        <v>0.9999999999999999</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="E25">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F25">
         <v>0.9999999999999999</v>
       </c>
       <c r="G25">
-        <v>0.9578586294114293</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="H25">
-        <v>0.9834318195383523</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I25">
-        <v>0.9852533855380936</v>
+        <v>0.918349220038557</v>
       </c>
       <c r="J25">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K25">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
       <c r="L25">
-        <v>0.9834318195383523</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M25">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N25">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O25">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1549,46 +1549,46 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9879153835385319</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="C26">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D26">
-        <v>0.9999999999999999</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="E26">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F26">
         <v>0.9999999999999999</v>
       </c>
       <c r="G26">
-        <v>0.9578586294114293</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="H26">
-        <v>0.9834318195383523</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I26">
-        <v>0.9852533855380936</v>
+        <v>0.918349220038557</v>
       </c>
       <c r="J26">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K26">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
       <c r="L26">
-        <v>0.9834318195383523</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M26">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N26">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O26">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1596,46 +1596,46 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9879153835385319</v>
+        <v>0.9635341589735498</v>
       </c>
       <c r="C27">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D27">
-        <v>0.9578586294114294</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="E27">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F27">
-        <v>0.9929892877876245</v>
+        <v>0.987915383538532</v>
       </c>
       <c r="G27">
-        <v>0.9508479171990539</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="H27">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I27">
-        <v>0.9431120149495231</v>
+        <v>0.918349220038557</v>
       </c>
       <c r="J27">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K27">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
       <c r="L27">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M27">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N27">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O27">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1643,46 +1643,46 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9879153835385319</v>
+        <v>0.9635341589735498</v>
       </c>
       <c r="C28">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D28">
-        <v>0.9578586294114294</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="E28">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F28">
-        <v>0.9929892877876245</v>
+        <v>0.987915383538532</v>
       </c>
       <c r="G28">
-        <v>0.9508479171990539</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="H28">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I28">
-        <v>0.9431120149495231</v>
+        <v>0.918349220038557</v>
       </c>
       <c r="J28">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K28">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
       <c r="L28">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M28">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N28">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O28">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1690,46 +1690,46 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9879153835385319</v>
+        <v>0.9635341589735498</v>
       </c>
       <c r="C29">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D29">
-        <v>0.9578586294114294</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="E29">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F29">
-        <v>0.9929892877876245</v>
+        <v>0.987915383538532</v>
       </c>
       <c r="G29">
-        <v>0.9508479171990539</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="H29">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I29">
-        <v>0.9431120149495231</v>
+        <v>0.918349220038557</v>
       </c>
       <c r="J29">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K29">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
       <c r="L29">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M29">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N29">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O29">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1737,46 +1737,46 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9879153835385319</v>
+        <v>0.9635341589735498</v>
       </c>
       <c r="C30">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D30">
-        <v>0.9578586294114294</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="E30">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F30">
-        <v>0.9929892877876245</v>
+        <v>0.987915383538532</v>
       </c>
       <c r="G30">
-        <v>0.9508479171990539</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="H30">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I30">
-        <v>0.9431120149495231</v>
+        <v>0.918349220038557</v>
       </c>
       <c r="J30">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K30">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
       <c r="L30">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M30">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N30">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O30">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1784,46 +1784,46 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9879153835385319</v>
+        <v>0.9635341589735498</v>
       </c>
       <c r="C31">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D31">
-        <v>0.9578586294114294</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="E31">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F31">
-        <v>0.9929892877876245</v>
+        <v>0.987915383538532</v>
       </c>
       <c r="G31">
-        <v>0.9508479171990539</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="H31">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I31">
-        <v>0.9431120149495231</v>
+        <v>0.918349220038557</v>
       </c>
       <c r="J31">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K31">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
       <c r="L31">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M31">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N31">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O31">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1831,46 +1831,46 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9879153835385319</v>
+        <v>0.9635341589735498</v>
       </c>
       <c r="C32">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D32">
-        <v>0.9578586294114294</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="E32">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F32">
-        <v>0.9929892877876245</v>
+        <v>0.987915383538532</v>
       </c>
       <c r="G32">
-        <v>0.9508479171990539</v>
+        <v>0.9780213364023759</v>
       </c>
       <c r="H32">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I32">
-        <v>0.9431120149495231</v>
+        <v>0.918349220038557</v>
       </c>
       <c r="J32">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K32">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
       <c r="L32">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M32">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N32">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O32">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1878,46 +1878,46 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9879153835385319</v>
+        <v>0.9635341589735498</v>
       </c>
       <c r="C33">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D33">
-        <v>0.9578586294114294</v>
+        <v>0.9429152403665635</v>
       </c>
       <c r="E33">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F33">
-        <v>0.9929892877876245</v>
+        <v>0.9271816581083222</v>
       </c>
       <c r="G33">
-        <v>0.9508479171990539</v>
+        <v>0.9517900470498847</v>
       </c>
       <c r="H33">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I33">
-        <v>0.932877463275564</v>
+        <v>0.8832431240027447</v>
       </c>
       <c r="J33">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K33">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
       <c r="L33">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M33">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N33">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O33">
-        <v>0.9834318195383523</v>
+        <v>0.9482086773432286</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1925,46 +1925,46 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9879153835385319</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C34">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D34">
-        <v>0.9578586294114294</v>
+        <v>0.9429152403665635</v>
       </c>
       <c r="E34">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F34">
-        <v>0.9929892877876245</v>
+        <v>0.9271816581083222</v>
       </c>
       <c r="G34">
-        <v>0.9508479171990539</v>
+        <v>0.9517900470498847</v>
       </c>
       <c r="H34">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I34">
-        <v>0.932877463275564</v>
+        <v>0.8832431240027447</v>
       </c>
       <c r="J34">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K34">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
       <c r="L34">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M34">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N34">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O34">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1972,46 +1972,46 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9879153835385319</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C35">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D35">
-        <v>0.9578586294114294</v>
+        <v>0.9429152403665635</v>
       </c>
       <c r="E35">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F35">
-        <v>0.9929892877876245</v>
+        <v>0.9271816581083222</v>
       </c>
       <c r="G35">
-        <v>0.9508479171990539</v>
+        <v>0.9517900470498847</v>
       </c>
       <c r="H35">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I35">
-        <v>0.932877463275564</v>
+        <v>0.8832431240027447</v>
       </c>
       <c r="J35">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K35">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
       <c r="L35">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M35">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N35">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O35">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2019,46 +2019,46 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9879153835385319</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C36">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D36">
-        <v>0.9578586294114294</v>
+        <v>0.9429152403665635</v>
       </c>
       <c r="E36">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F36">
-        <v>0.9929892877876245</v>
+        <v>0.9271816581083222</v>
       </c>
       <c r="G36">
-        <v>0.9508479171990539</v>
+        <v>0.9517900470498847</v>
       </c>
       <c r="H36">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I36">
-        <v>0.932877463275564</v>
+        <v>0.8832431240027447</v>
       </c>
       <c r="J36">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K36">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
       <c r="L36">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M36">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N36">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O36">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2066,46 +2066,46 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9879153835385319</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C37">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D37">
-        <v>0.9578586294114294</v>
+        <v>0.9429152403665635</v>
       </c>
       <c r="E37">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F37">
-        <v>0.9929892877876245</v>
+        <v>0.9271816581083222</v>
       </c>
       <c r="G37">
-        <v>0.9508479171990539</v>
+        <v>0.9517900470498847</v>
       </c>
       <c r="H37">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I37">
-        <v>0.932877463275564</v>
+        <v>0.8832431240027447</v>
       </c>
       <c r="J37">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K37">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
       <c r="L37">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M37">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N37">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O37">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2113,46 +2113,46 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9879153835385319</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C38">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D38">
-        <v>0.9578586294114294</v>
+        <v>0.9429152403665635</v>
       </c>
       <c r="E38">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F38">
-        <v>0.9929892877876245</v>
+        <v>0.9271816581083222</v>
       </c>
       <c r="G38">
-        <v>0.9508479171990539</v>
+        <v>0.9517900470498847</v>
       </c>
       <c r="H38">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I38">
-        <v>0.932877463275564</v>
+        <v>0.8832431240027447</v>
       </c>
       <c r="J38">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K38">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
       <c r="L38">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M38">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N38">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O38">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2160,46 +2160,46 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9879153835385319</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C39">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D39">
-        <v>0.9578586294114294</v>
+        <v>0.9429152403665635</v>
       </c>
       <c r="E39">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F39">
-        <v>0.9929892877876245</v>
+        <v>0.9271816581083222</v>
       </c>
       <c r="G39">
-        <v>0.9508479171990539</v>
+        <v>0.9517900470498847</v>
       </c>
       <c r="H39">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I39">
-        <v>0.932877463275564</v>
+        <v>0.8832431240027447</v>
       </c>
       <c r="J39">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K39">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
       <c r="L39">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M39">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N39">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O39">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2207,46 +2207,46 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9879153835385319</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C40">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D40">
-        <v>0.8928112711413627</v>
+        <v>0.9056856761436463</v>
       </c>
       <c r="E40">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F40">
-        <v>0.9225581405389306</v>
+        <v>0.906334276694387</v>
       </c>
       <c r="G40">
-        <v>0.9249402451429884</v>
+        <v>0.9309426656359495</v>
       </c>
       <c r="H40">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I40">
-        <v>0.932877463275564</v>
+        <v>0.8668609411937627</v>
       </c>
       <c r="J40">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K40">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
       <c r="L40">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M40">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N40">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O40">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2254,46 +2254,46 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9879153835385319</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C41">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D41">
-        <v>0.8928112711413627</v>
+        <v>0.9056856761436463</v>
       </c>
       <c r="E41">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F41">
-        <v>0.9225581405389306</v>
+        <v>0.906334276694387</v>
       </c>
       <c r="G41">
-        <v>0.9249402451429884</v>
+        <v>0.9309426656359495</v>
       </c>
       <c r="H41">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I41">
-        <v>0.932877463275564</v>
+        <v>0.8668609411937627</v>
       </c>
       <c r="J41">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K41">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
       <c r="L41">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M41">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N41">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O41">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2301,46 +2301,46 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9879153835385319</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C42">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D42">
-        <v>0.8928112711413627</v>
+        <v>0.9056856761436463</v>
       </c>
       <c r="E42">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F42">
-        <v>0.9225581405389306</v>
+        <v>0.906334276694387</v>
       </c>
       <c r="G42">
-        <v>0.9249402451429884</v>
+        <v>0.9309426656359495</v>
       </c>
       <c r="H42">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I42">
-        <v>0.932877463275564</v>
+        <v>0.8668609411937627</v>
       </c>
       <c r="J42">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K42">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
       <c r="L42">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M42">
-        <v>0.9834318195383523</v>
+        <v>0.9187443537278983</v>
       </c>
       <c r="N42">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O42">
-        <v>0.9834318195383523</v>
+        <v>0.9393338706599074</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2348,46 +2348,46 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.923037666076211</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C43">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D43">
-        <v>0.8603724124102022</v>
+        <v>0.9056856761436463</v>
       </c>
       <c r="E43">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F43">
-        <v>0.8901192818077701</v>
+        <v>0.906334276694387</v>
       </c>
       <c r="G43">
-        <v>0.892501386411828</v>
+        <v>0.9309426656359495</v>
       </c>
       <c r="H43">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I43">
-        <v>0.8818340674714962</v>
+        <v>0.8358787273688811</v>
       </c>
       <c r="J43">
-        <v>0.9834318195383523</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K43">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
       <c r="L43">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M43">
-        <v>0.9834318195383523</v>
+        <v>0.9098695470445771</v>
       </c>
       <c r="N43">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O43">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2395,46 +2395,46 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.923037666076211</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C44">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D44">
-        <v>0.8603724124102022</v>
+        <v>0.9056856761436463</v>
       </c>
       <c r="E44">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F44">
-        <v>0.8901192818077701</v>
+        <v>0.906334276694387</v>
       </c>
       <c r="G44">
-        <v>0.892501386411828</v>
+        <v>0.9309426656359495</v>
       </c>
       <c r="H44">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I44">
-        <v>0.8818340674714962</v>
+        <v>0.8358787273688811</v>
       </c>
       <c r="J44">
-        <v>0.9834318195383523</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K44">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
       <c r="L44">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M44">
-        <v>0.9834318195383523</v>
+        <v>0.9098695470445771</v>
       </c>
       <c r="N44">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O44">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2442,46 +2442,46 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.923037666076211</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C45">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D45">
-        <v>0.8603724124102022</v>
+        <v>0.9056856761436463</v>
       </c>
       <c r="E45">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F45">
-        <v>0.8901192818077701</v>
+        <v>0.906334276694387</v>
       </c>
       <c r="G45">
-        <v>0.892501386411828</v>
+        <v>0.9309426656359495</v>
       </c>
       <c r="H45">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I45">
-        <v>0.8818340674714962</v>
+        <v>0.8358787273688811</v>
       </c>
       <c r="J45">
-        <v>0.9834318195383523</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K45">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
       <c r="L45">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M45">
-        <v>0.9834318195383523</v>
+        <v>0.9098695470445771</v>
       </c>
       <c r="N45">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O45">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2489,46 +2489,46 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.923037666076211</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C46">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D46">
-        <v>0.8603724124102022</v>
+        <v>0.9056856761436463</v>
       </c>
       <c r="E46">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F46">
-        <v>0.8901192818077701</v>
+        <v>0.906334276694387</v>
       </c>
       <c r="G46">
-        <v>0.892501386411828</v>
+        <v>0.9309426656359495</v>
       </c>
       <c r="H46">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I46">
-        <v>0.8818340674714962</v>
+        <v>0.8358787273688811</v>
       </c>
       <c r="J46">
-        <v>0.9834318195383523</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K46">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
       <c r="L46">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M46">
-        <v>0.9834318195383523</v>
+        <v>0.9098695470445771</v>
       </c>
       <c r="N46">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O46">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2536,46 +2536,46 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.923037666076211</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C47">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D47">
-        <v>0.8603724124102022</v>
+        <v>0.9056856761436463</v>
       </c>
       <c r="E47">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F47">
-        <v>0.8901192818077701</v>
+        <v>0.906334276694387</v>
       </c>
       <c r="G47">
-        <v>0.892501386411828</v>
+        <v>0.9309426656359495</v>
       </c>
       <c r="H47">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I47">
-        <v>0.8818340674714962</v>
+        <v>0.8358787273688811</v>
       </c>
       <c r="J47">
-        <v>0.9834318195383523</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K47">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
       <c r="L47">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M47">
-        <v>0.9834318195383523</v>
+        <v>0.9098695470445771</v>
       </c>
       <c r="N47">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O47">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2583,46 +2583,46 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.923037666076211</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C48">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D48">
-        <v>0.8603724124102022</v>
+        <v>0.9056856761436463</v>
       </c>
       <c r="E48">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F48">
-        <v>0.8901192818077701</v>
+        <v>0.906334276694387</v>
       </c>
       <c r="G48">
-        <v>0.892501386411828</v>
+        <v>0.9309426656359495</v>
       </c>
       <c r="H48">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I48">
-        <v>0.8818340674714962</v>
+        <v>0.8358787273688811</v>
       </c>
       <c r="J48">
-        <v>0.9834318195383523</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K48">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
       <c r="L48">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M48">
-        <v>0.9834318195383523</v>
+        <v>0.9098695470445771</v>
       </c>
       <c r="N48">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O48">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2630,46 +2630,46 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.923037666076211</v>
+        <v>0.9415554953759258</v>
       </c>
       <c r="C49">
-        <v>0.9713472030768844</v>
+        <v>0.9737687106475088</v>
       </c>
       <c r="D49">
-        <v>0.8603724124102022</v>
+        <v>0.9056856761436463</v>
       </c>
       <c r="E49">
-        <v>0.9412904489497819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F49">
-        <v>0.8901192818077701</v>
+        <v>0.906334276694387</v>
       </c>
       <c r="G49">
-        <v>0.892501386411828</v>
+        <v>0.9309426656359495</v>
       </c>
       <c r="H49">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="I49">
-        <v>0.8818340674714962</v>
+        <v>0.8358787273688811</v>
       </c>
       <c r="J49">
-        <v>0.9834318195383523</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K49">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
       <c r="L49">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M49">
-        <v>0.9834318195383523</v>
+        <v>0.9098695470445771</v>
       </c>
       <c r="N49">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O49">
-        <v>0.9834318195383523</v>
+        <v>0.9304590639765862</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2677,46 +2677,46 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.904139753447797</v>
+        <v>0.8916333177634204</v>
       </c>
       <c r="C50">
-        <v>0.9524492904484704</v>
+        <v>0.9385931474969097</v>
       </c>
       <c r="D50">
-        <v>0.8341411230577112</v>
+        <v>0.8501945756183117</v>
       </c>
       <c r="E50">
-        <v>0.9412904489497819</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F50">
-        <v>0.863887992455279</v>
+        <v>0.8508431761690525</v>
       </c>
       <c r="G50">
-        <v>0.8473721844309229</v>
+        <v>0.8402760019600158</v>
       </c>
       <c r="H50">
-        <v>0.9412904489497819</v>
+        <v>0.8857114238193621</v>
       </c>
       <c r="I50">
-        <v>0.8818340674714962</v>
+        <v>0.8211321129069747</v>
       </c>
       <c r="J50">
-        <v>0.9834318195383523</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K50">
-        <v>0.9834318195383523</v>
+        <v>0.921584257293265</v>
       </c>
       <c r="L50">
-        <v>0.9412904489497819</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M50">
-        <v>0.9834318195383523</v>
+        <v>0.9009947403612559</v>
       </c>
       <c r="N50">
-        <v>0.9834318195383523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O50">
-        <v>0.9834318195383523</v>
+        <v>0.921584257293265</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2724,46 +2724,46 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.904139753447797</v>
+        <v>0.8660732844591401</v>
       </c>
       <c r="C51">
-        <v>0.9207810073520889</v>
+        <v>0.9130331141926294</v>
       </c>
       <c r="D51">
-        <v>0.8341411230577112</v>
+        <v>0.8501945756183117</v>
       </c>
       <c r="E51">
-        <v>0.9096221658534004</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F51">
-        <v>0.863887992455279</v>
+        <v>0.8508431761690525</v>
       </c>
       <c r="G51">
-        <v>0.8473721844309229</v>
+        <v>0.8402760019600158</v>
       </c>
       <c r="H51">
-        <v>0.9096221658534004</v>
+        <v>0.8857114238193621</v>
       </c>
       <c r="I51">
-        <v>0.8614051187828035</v>
+        <v>0.8211321129069747</v>
       </c>
       <c r="J51">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K51">
-        <v>0.9517635364419709</v>
+        <v>0.921584257293265</v>
       </c>
       <c r="L51">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M51">
-        <v>0.9517635364419709</v>
+        <v>0.9009947403612559</v>
       </c>
       <c r="N51">
-        <v>0.9517635364419709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O51">
-        <v>0.9517635364419709</v>
+        <v>0.921584257293265</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2771,46 +2771,46 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.8893931389858907</v>
+        <v>0.8660732844591401</v>
       </c>
       <c r="C52">
-        <v>0.9207810073520889</v>
+        <v>0.9130331141926294</v>
       </c>
       <c r="D52">
-        <v>0.8193945085958049</v>
+        <v>0.8410347874540766</v>
       </c>
       <c r="E52">
-        <v>0.9096221658534004</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F52">
-        <v>0.8148279355893194</v>
+        <v>0.8387585597075846</v>
       </c>
       <c r="G52">
-        <v>0.7983121275649633</v>
+        <v>0.828191385498548</v>
       </c>
       <c r="H52">
-        <v>0.9096221658534004</v>
+        <v>0.8857114238193621</v>
       </c>
       <c r="I52">
-        <v>0.8466585043208972</v>
+        <v>0.8119723247427396</v>
       </c>
       <c r="J52">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K52">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
       <c r="L52">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M52">
-        <v>0.9517635364419709</v>
+        <v>0.9009947403612559</v>
       </c>
       <c r="N52">
-        <v>0.9517635364419709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O52">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2818,46 +2818,46 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.8893931389858907</v>
+        <v>0.8660732844591401</v>
       </c>
       <c r="C53">
-        <v>0.9207810073520889</v>
+        <v>0.9130331141926294</v>
       </c>
       <c r="D53">
-        <v>0.8193945085958049</v>
+        <v>0.8410347874540766</v>
       </c>
       <c r="E53">
-        <v>0.9096221658534004</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F53">
-        <v>0.8148279355893194</v>
+        <v>0.8387585597075846</v>
       </c>
       <c r="G53">
-        <v>0.7983121275649633</v>
+        <v>0.828191385498548</v>
       </c>
       <c r="H53">
-        <v>0.9096221658534004</v>
+        <v>0.8857114238193621</v>
       </c>
       <c r="I53">
-        <v>0.8466585043208972</v>
+        <v>0.8119723247427396</v>
       </c>
       <c r="J53">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K53">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
       <c r="L53">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M53">
-        <v>0.9517635364419709</v>
+        <v>0.9009947403612559</v>
       </c>
       <c r="N53">
-        <v>0.9517635364419709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O53">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2865,46 +2865,46 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.8893931389858907</v>
+        <v>0.8660732844591401</v>
       </c>
       <c r="C54">
-        <v>0.9207810073520889</v>
+        <v>0.9130331141926294</v>
       </c>
       <c r="D54">
-        <v>0.8193945085958049</v>
+        <v>0.8410347874540766</v>
       </c>
       <c r="E54">
-        <v>0.9096221658534004</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F54">
-        <v>0.8148279355893194</v>
+        <v>0.8387585597075846</v>
       </c>
       <c r="G54">
-        <v>0.7983121275649633</v>
+        <v>0.828191385498548</v>
       </c>
       <c r="H54">
-        <v>0.9096221658534004</v>
+        <v>0.8857114238193621</v>
       </c>
       <c r="I54">
-        <v>0.8466585043208972</v>
+        <v>0.8119723247427396</v>
       </c>
       <c r="J54">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K54">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
       <c r="L54">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M54">
-        <v>0.9517635364419709</v>
+        <v>0.9009947403612559</v>
       </c>
       <c r="N54">
-        <v>0.9517635364419709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O54">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2912,46 +2912,46 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.8893931389858907</v>
+        <v>0.8660732844591401</v>
       </c>
       <c r="C55">
-        <v>0.9207810073520889</v>
+        <v>0.9130331141926294</v>
       </c>
       <c r="D55">
-        <v>0.8193945085958049</v>
+        <v>0.8410347874540766</v>
       </c>
       <c r="E55">
-        <v>0.9096221658534004</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F55">
-        <v>0.8148279355893194</v>
+        <v>0.8387585597075846</v>
       </c>
       <c r="G55">
-        <v>0.7983121275649633</v>
+        <v>0.828191385498548</v>
       </c>
       <c r="H55">
-        <v>0.9096221658534004</v>
+        <v>0.8857114238193621</v>
       </c>
       <c r="I55">
-        <v>0.8466585043208972</v>
+        <v>0.8119723247427396</v>
       </c>
       <c r="J55">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K55">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
       <c r="L55">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M55">
-        <v>0.9517635364419709</v>
+        <v>0.9009947403612559</v>
       </c>
       <c r="N55">
-        <v>0.9517635364419709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O55">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -2959,46 +2959,46 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.8893931389858907</v>
+        <v>0.8660732844591401</v>
       </c>
       <c r="C56">
-        <v>0.9207810073520889</v>
+        <v>0.9130331141926294</v>
       </c>
       <c r="D56">
-        <v>0.8193945085958049</v>
+        <v>0.8410347874540766</v>
       </c>
       <c r="E56">
-        <v>0.9096221658534004</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F56">
-        <v>0.8148279355893194</v>
+        <v>0.8387585597075846</v>
       </c>
       <c r="G56">
-        <v>0.7983121275649633</v>
+        <v>0.828191385498548</v>
       </c>
       <c r="H56">
-        <v>0.9096221658534004</v>
+        <v>0.8857114238193621</v>
       </c>
       <c r="I56">
-        <v>0.8466585043208972</v>
+        <v>0.8119723247427396</v>
       </c>
       <c r="J56">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K56">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
       <c r="L56">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M56">
-        <v>0.9517635364419709</v>
+        <v>0.9009947403612559</v>
       </c>
       <c r="N56">
-        <v>0.9517635364419709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O56">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3006,46 +3006,46 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.8893931389858907</v>
+        <v>0.8660732844591401</v>
       </c>
       <c r="C57">
-        <v>0.9207810073520889</v>
+        <v>0.9130331141926294</v>
       </c>
       <c r="D57">
-        <v>0.8193945085958049</v>
+        <v>0.8410347874540766</v>
       </c>
       <c r="E57">
-        <v>0.9096221658534004</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F57">
-        <v>0.8148279355893194</v>
+        <v>0.8387585597075846</v>
       </c>
       <c r="G57">
-        <v>0.7983121275649633</v>
+        <v>0.828191385498548</v>
       </c>
       <c r="H57">
-        <v>0.9096221658534004</v>
+        <v>0.8857114238193621</v>
       </c>
       <c r="I57">
-        <v>0.8466585043208972</v>
+        <v>0.8119723247427396</v>
       </c>
       <c r="J57">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K57">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
       <c r="L57">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M57">
-        <v>0.9517635364419709</v>
+        <v>0.9009947403612559</v>
       </c>
       <c r="N57">
-        <v>0.9517635364419709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O57">
-        <v>0.9517635364419709</v>
+        <v>0.9068376428313587</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3053,46 +3053,46 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.8893931389858907</v>
+        <v>0.844328867181125</v>
       </c>
       <c r="C58">
-        <v>0.9018830947236749</v>
+        <v>0.9130331141926294</v>
       </c>
       <c r="D58">
-        <v>0.8193945085958049</v>
+        <v>0.8410347874540766</v>
       </c>
       <c r="E58">
-        <v>0.8907242532249864</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F58">
-        <v>0.8148279355893194</v>
+        <v>0.8387585597075846</v>
       </c>
       <c r="G58">
-        <v>0.7983121275649633</v>
+        <v>0.828191385498548</v>
       </c>
       <c r="H58">
-        <v>0.9096221658534004</v>
+        <v>0.866813511190948</v>
       </c>
       <c r="I58">
-        <v>0.8466585043208972</v>
+        <v>0.8119723247427396</v>
       </c>
       <c r="J58">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K58">
-        <v>0.9517635364419709</v>
+        <v>0.8659610666053206</v>
       </c>
       <c r="L58">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M58">
-        <v>0.9517635364419709</v>
+        <v>0.8820968277328419</v>
       </c>
       <c r="N58">
-        <v>0.9517635364419709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O58">
-        <v>0.9517635364419709</v>
+        <v>0.8659610666053206</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3100,46 +3100,46 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.8569542802547301</v>
+        <v>0.8283321295025929</v>
       </c>
       <c r="C59">
-        <v>0.9018830947236749</v>
+        <v>0.9130331141926294</v>
       </c>
       <c r="D59">
-        <v>0.7352836750816686</v>
+        <v>0.8115276987584394</v>
       </c>
       <c r="E59">
-        <v>0.8907242532249864</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F59">
-        <v>0.6901830883671006</v>
+        <v>0.8092514710119474</v>
       </c>
       <c r="G59">
-        <v>0.7167797447081846</v>
+        <v>0.786599680341443</v>
       </c>
       <c r="H59">
-        <v>0.9096221658534004</v>
+        <v>0.866813511190948</v>
       </c>
       <c r="I59">
-        <v>0.8466585043208972</v>
+        <v>0.7972257102808333</v>
       </c>
       <c r="J59">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K59">
-        <v>0.9517635364419709</v>
+        <v>0.8659610666053206</v>
       </c>
       <c r="L59">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M59">
-        <v>0.9517635364419709</v>
+        <v>0.8820968277328419</v>
       </c>
       <c r="N59">
-        <v>0.9328656238135568</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O59">
-        <v>0.9517635364419709</v>
+        <v>0.8659610666053206</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3147,46 +3147,46 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.8569542802547301</v>
+        <v>0.8283321295025929</v>
       </c>
       <c r="C60">
-        <v>0.9018830947236749</v>
+        <v>0.9130331141926294</v>
       </c>
       <c r="D60">
-        <v>0.7352836750816686</v>
+        <v>0.8115276987584394</v>
       </c>
       <c r="E60">
-        <v>0.8907242532249864</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F60">
-        <v>0.6901830883671006</v>
+        <v>0.8092514710119474</v>
       </c>
       <c r="G60">
-        <v>0.7167797447081846</v>
+        <v>0.786599680341443</v>
       </c>
       <c r="H60">
-        <v>0.9096221658534004</v>
+        <v>0.866813511190948</v>
       </c>
       <c r="I60">
-        <v>0.8466585043208972</v>
+        <v>0.7972257102808333</v>
       </c>
       <c r="J60">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K60">
-        <v>0.9517635364419709</v>
+        <v>0.8659610666053206</v>
       </c>
       <c r="L60">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M60">
-        <v>0.9517635364419709</v>
+        <v>0.8820968277328419</v>
       </c>
       <c r="N60">
-        <v>0.9328656238135568</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O60">
-        <v>0.9517635364419709</v>
+        <v>0.8659610666053206</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3194,46 +3194,46 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.826758668757526</v>
+        <v>0.8084259555498883</v>
       </c>
       <c r="C61">
-        <v>0.8295461126379002</v>
+        <v>0.8931269402399249</v>
       </c>
       <c r="D61">
-        <v>0.7352836750816686</v>
+        <v>0.8115276987584394</v>
       </c>
       <c r="E61">
-        <v>0.8907242532249864</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F61">
-        <v>0.6901830883671006</v>
+        <v>0.8092514710119474</v>
       </c>
       <c r="G61">
-        <v>0.6865841332109804</v>
+        <v>0.7666935063887383</v>
       </c>
       <c r="H61">
-        <v>0.9096221658534004</v>
+        <v>0.866813511190948</v>
       </c>
       <c r="I61">
-        <v>0.8466585043208972</v>
+        <v>0.7972257102808333</v>
       </c>
       <c r="J61">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K61">
-        <v>0.9517635364419709</v>
+        <v>0.8659610666053206</v>
       </c>
       <c r="L61">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M61">
-        <v>0.9517635364419709</v>
+        <v>0.8820968277328419</v>
       </c>
       <c r="N61">
-        <v>0.9328656238135568</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O61">
-        <v>0.9517635364419709</v>
+        <v>0.8659610666053206</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3241,46 +3241,46 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.8051225676778573</v>
+        <v>0.8084259555498883</v>
       </c>
       <c r="C62">
-        <v>0.8295461126379002</v>
+        <v>0.8931269402399249</v>
       </c>
       <c r="D62">
-        <v>0.6329200973172021</v>
+        <v>0.7212141878292082</v>
       </c>
       <c r="E62">
-        <v>0.8907242532249864</v>
+        <v>0.9852533855380936</v>
       </c>
       <c r="F62">
-        <v>0.6299608811912045</v>
+        <v>0.7365213191690522</v>
       </c>
       <c r="G62">
-        <v>0.6393879988270316</v>
+        <v>0.6763799954595071</v>
       </c>
       <c r="H62">
-        <v>0.9096221658534004</v>
+        <v>0.8540299970177849</v>
       </c>
       <c r="I62">
-        <v>0.8045171337323266</v>
+        <v>0.7796423511944973</v>
       </c>
       <c r="J62">
-        <v>0.9517635364419709</v>
+        <v>0.9911251933166787</v>
       </c>
       <c r="K62">
-        <v>0.9517635364419709</v>
+        <v>0.8531775524321575</v>
       </c>
       <c r="L62">
-        <v>0.9096221658534004</v>
+        <v>0.8945862305026833</v>
       </c>
       <c r="M62">
-        <v>0.9517635364419709</v>
+        <v>0.8693133135596789</v>
       </c>
       <c r="N62">
-        <v>0.9026700123163527</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O62">
-        <v>0.9517635364419709</v>
+        <v>0.8531775524321575</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3288,46 +3288,46 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7629811970892867</v>
+        <v>0.7353020558714359</v>
       </c>
       <c r="C63">
-        <v>0.7874047420493298</v>
+        <v>0.8509855696513544</v>
       </c>
       <c r="D63">
-        <v>0.6329200973172021</v>
+        <v>0.7055219439237808</v>
       </c>
       <c r="E63">
-        <v>0.8907242532249864</v>
+        <v>0.9663554729096796</v>
       </c>
       <c r="F63">
-        <v>0.6299608811912045</v>
+        <v>0.7365213191690522</v>
       </c>
       <c r="G63">
-        <v>0.6393879988270316</v>
+        <v>0.6763799954595071</v>
       </c>
       <c r="H63">
-        <v>0.9096221658534004</v>
+        <v>0.8351320843893709</v>
       </c>
       <c r="I63">
-        <v>0.7720782750011661</v>
+        <v>0.7450521946606558</v>
       </c>
       <c r="J63">
-        <v>0.9517635364419709</v>
+        <v>0.9601426642267968</v>
       </c>
       <c r="K63">
-        <v>0.9517635364419709</v>
+        <v>0.7959637339897846</v>
       </c>
       <c r="L63">
-        <v>0.9096221658534004</v>
+        <v>0.8494570285217781</v>
       </c>
       <c r="M63">
-        <v>0.9517635364419709</v>
+        <v>0.838330784469797</v>
       </c>
       <c r="N63">
-        <v>0.9026700123163527</v>
+        <v>0.969017470910118</v>
       </c>
       <c r="O63">
-        <v>0.9517635364419709</v>
+        <v>0.8221950233422757</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3335,46 +3335,46 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7629811970892867</v>
+        <v>0.7353020558714359</v>
       </c>
       <c r="C64">
-        <v>0.7874047420493298</v>
+        <v>0.8509855696513544</v>
       </c>
       <c r="D64">
-        <v>0.6329200973172021</v>
+        <v>0.7055219439237808</v>
       </c>
       <c r="E64">
-        <v>0.8907242532249864</v>
+        <v>0.9663554729096796</v>
       </c>
       <c r="F64">
-        <v>0.6299608811912045</v>
+        <v>0.7365213191690522</v>
       </c>
       <c r="G64">
-        <v>0.6393879988270316</v>
+        <v>0.6763799954595071</v>
       </c>
       <c r="H64">
-        <v>0.9096221658534004</v>
+        <v>0.8351320843893709</v>
       </c>
       <c r="I64">
-        <v>0.7720782750011661</v>
+        <v>0.7450521946606558</v>
       </c>
       <c r="J64">
-        <v>0.9517635364419709</v>
+        <v>0.9601426642267968</v>
       </c>
       <c r="K64">
-        <v>0.9517635364419709</v>
+        <v>0.7959637339897846</v>
       </c>
       <c r="L64">
-        <v>0.9096221658534004</v>
+        <v>0.8494570285217781</v>
       </c>
       <c r="M64">
-        <v>0.9517635364419709</v>
+        <v>0.838330784469797</v>
       </c>
       <c r="N64">
-        <v>0.9026700123163527</v>
+        <v>0.969017470910118</v>
       </c>
       <c r="O64">
-        <v>0.9517635364419709</v>
+        <v>0.8221950233422757</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3382,46 +3382,46 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7629811970892867</v>
+        <v>0.7353020558714359</v>
       </c>
       <c r="C65">
-        <v>0.7874047420493298</v>
+        <v>0.8509855696513544</v>
       </c>
       <c r="D65">
-        <v>0.6329200973172021</v>
+        <v>0.7055219439237808</v>
       </c>
       <c r="E65">
-        <v>0.8907242532249864</v>
+        <v>0.9663554729096796</v>
       </c>
       <c r="F65">
-        <v>0.6299608811912045</v>
+        <v>0.7365213191690522</v>
       </c>
       <c r="G65">
-        <v>0.6393879988270316</v>
+        <v>0.6763799954595071</v>
       </c>
       <c r="H65">
-        <v>0.9096221658534004</v>
+        <v>0.8351320843893709</v>
       </c>
       <c r="I65">
-        <v>0.7720782750011661</v>
+        <v>0.7450521946606558</v>
       </c>
       <c r="J65">
-        <v>0.9517635364419709</v>
+        <v>0.9601426642267968</v>
       </c>
       <c r="K65">
-        <v>0.9517635364419709</v>
+        <v>0.7959637339897846</v>
       </c>
       <c r="L65">
-        <v>0.9096221658534004</v>
+        <v>0.8494570285217781</v>
       </c>
       <c r="M65">
-        <v>0.9517635364419709</v>
+        <v>0.838330784469797</v>
       </c>
       <c r="N65">
-        <v>0.9026700123163527</v>
+        <v>0.969017470910118</v>
       </c>
       <c r="O65">
-        <v>0.9517635364419709</v>
+        <v>0.8221950233422757</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3429,46 +3429,46 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7629811970892867</v>
+        <v>0.7353020558714359</v>
       </c>
       <c r="C66">
-        <v>0.7874047420493298</v>
+        <v>0.8247542802988633</v>
       </c>
       <c r="D66">
-        <v>0.6073600640129219</v>
+        <v>0.6792906545712897</v>
       </c>
       <c r="E66">
-        <v>0.8582853944938258</v>
+        <v>0.9401241835571885</v>
       </c>
       <c r="F66">
-        <v>0.6124262969947322</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G66">
-        <v>0.6218534146305592</v>
+        <v>0.650148706107016</v>
       </c>
       <c r="H66">
-        <v>0.8771833071222398</v>
+        <v>0.8089007950368798</v>
       </c>
       <c r="I66">
-        <v>0.7613553410640724</v>
+        <v>0.7062218779777428</v>
       </c>
       <c r="J66">
-        <v>0.9193246777108103</v>
+        <v>0.9076800855218147</v>
       </c>
       <c r="K66">
-        <v>0.8771833071222398</v>
+        <v>0.7435011552848024</v>
       </c>
       <c r="L66">
-        <v>0.8350419365336693</v>
+        <v>0.7969944498167959</v>
       </c>
       <c r="M66">
-        <v>0.9193246777108103</v>
+        <v>0.8120994951173059</v>
       </c>
       <c r="N66">
-        <v>0.8702311535851921</v>
+        <v>0.9165548922051359</v>
       </c>
       <c r="O66">
-        <v>0.8771833071222398</v>
+        <v>0.8221950233422757</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3476,46 +3476,46 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.7629811970892867</v>
+        <v>0.7353020558714359</v>
       </c>
       <c r="C67">
-        <v>0.7874047420493298</v>
+        <v>0.8247542802988633</v>
       </c>
       <c r="D67">
-        <v>0.6073600640129219</v>
+        <v>0.6792906545712897</v>
       </c>
       <c r="E67">
-        <v>0.8582853944938258</v>
+        <v>0.9401241835571885</v>
       </c>
       <c r="F67">
-        <v>0.6124262969947322</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G67">
-        <v>0.6218534146305592</v>
+        <v>0.650148706107016</v>
       </c>
       <c r="H67">
-        <v>0.8771833071222398</v>
+        <v>0.8089007950368798</v>
       </c>
       <c r="I67">
-        <v>0.7613553410640724</v>
+        <v>0.7062218779777428</v>
       </c>
       <c r="J67">
-        <v>0.9193246777108103</v>
+        <v>0.9076800855218147</v>
       </c>
       <c r="K67">
-        <v>0.8771833071222398</v>
+        <v>0.7435011552848024</v>
       </c>
       <c r="L67">
-        <v>0.8350419365336693</v>
+        <v>0.7969944498167959</v>
       </c>
       <c r="M67">
-        <v>0.9193246777108103</v>
+        <v>0.8120994951173059</v>
       </c>
       <c r="N67">
-        <v>0.8702311535851921</v>
+        <v>0.9165548922051359</v>
       </c>
       <c r="O67">
-        <v>0.8771833071222398</v>
+        <v>0.8221950233422757</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3523,46 +3523,46 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.7629811970892867</v>
+        <v>0.7353020558714359</v>
       </c>
       <c r="C68">
-        <v>0.7874047420493298</v>
+        <v>0.8247542802988633</v>
       </c>
       <c r="D68">
-        <v>0.6073600640129219</v>
+        <v>0.6792906545712897</v>
       </c>
       <c r="E68">
-        <v>0.8582853944938258</v>
+        <v>0.9401241835571885</v>
       </c>
       <c r="F68">
-        <v>0.6124262969947322</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G68">
-        <v>0.6218534146305592</v>
+        <v>0.650148706107016</v>
       </c>
       <c r="H68">
-        <v>0.8771833071222398</v>
+        <v>0.8089007950368798</v>
       </c>
       <c r="I68">
-        <v>0.7613553410640724</v>
+        <v>0.7062218779777428</v>
       </c>
       <c r="J68">
-        <v>0.9193246777108103</v>
+        <v>0.9076800855218147</v>
       </c>
       <c r="K68">
-        <v>0.8771833071222398</v>
+        <v>0.7435011552848024</v>
       </c>
       <c r="L68">
-        <v>0.8350419365336693</v>
+        <v>0.7969944498167959</v>
       </c>
       <c r="M68">
-        <v>0.9193246777108103</v>
+        <v>0.8120994951173059</v>
       </c>
       <c r="N68">
-        <v>0.8702311535851921</v>
+        <v>0.9165548922051359</v>
       </c>
       <c r="O68">
-        <v>0.8771833071222398</v>
+        <v>0.8221950233422757</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3570,46 +3570,46 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7629811970892867</v>
+        <v>0.7353020558714359</v>
       </c>
       <c r="C69">
-        <v>0.7874047420493298</v>
+        <v>0.8247542802988633</v>
       </c>
       <c r="D69">
-        <v>0.6073600640129219</v>
+        <v>0.6792906545712897</v>
       </c>
       <c r="E69">
-        <v>0.8582853944938258</v>
+        <v>0.9401241835571885</v>
       </c>
       <c r="F69">
-        <v>0.6124262969947322</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G69">
-        <v>0.6218534146305592</v>
+        <v>0.650148706107016</v>
       </c>
       <c r="H69">
-        <v>0.8771833071222398</v>
+        <v>0.8089007950368798</v>
       </c>
       <c r="I69">
-        <v>0.7613553410640724</v>
+        <v>0.7062218779777428</v>
       </c>
       <c r="J69">
-        <v>0.9193246777108103</v>
+        <v>0.9076800855218147</v>
       </c>
       <c r="K69">
-        <v>0.8771833071222398</v>
+        <v>0.7435011552848024</v>
       </c>
       <c r="L69">
-        <v>0.8350419365336693</v>
+        <v>0.7969944498167959</v>
       </c>
       <c r="M69">
-        <v>0.9193246777108103</v>
+        <v>0.8120994951173059</v>
       </c>
       <c r="N69">
-        <v>0.8702311535851921</v>
+        <v>0.9165548922051359</v>
       </c>
       <c r="O69">
-        <v>0.8771833071222398</v>
+        <v>0.8221950233422757</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3617,46 +3617,46 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.7629811970892867</v>
+        <v>0.7353020558714359</v>
       </c>
       <c r="C70">
-        <v>0.7874047420493298</v>
+        <v>0.8247542802988633</v>
       </c>
       <c r="D70">
-        <v>0.6073600640129219</v>
+        <v>0.6792906545712897</v>
       </c>
       <c r="E70">
-        <v>0.8582853944938258</v>
+        <v>0.9401241835571885</v>
       </c>
       <c r="F70">
-        <v>0.6124262969947322</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G70">
-        <v>0.6218534146305592</v>
+        <v>0.650148706107016</v>
       </c>
       <c r="H70">
-        <v>0.8771833071222398</v>
+        <v>0.8089007950368798</v>
       </c>
       <c r="I70">
-        <v>0.7613553410640724</v>
+        <v>0.7062218779777428</v>
       </c>
       <c r="J70">
-        <v>0.9193246777108103</v>
+        <v>0.9076800855218147</v>
       </c>
       <c r="K70">
-        <v>0.8771833071222398</v>
+        <v>0.7435011552848024</v>
       </c>
       <c r="L70">
-        <v>0.8350419365336693</v>
+        <v>0.7969944498167959</v>
       </c>
       <c r="M70">
-        <v>0.9193246777108103</v>
+        <v>0.8120994951173059</v>
       </c>
       <c r="N70">
-        <v>0.8702311535851921</v>
+        <v>0.9165548922051359</v>
       </c>
       <c r="O70">
-        <v>0.8771833071222398</v>
+        <v>0.8221950233422757</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3664,46 +3664,46 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7629811970892867</v>
+        <v>0.7198297536335726</v>
       </c>
       <c r="C71">
-        <v>0.7452633714607593</v>
+        <v>0.7826129097102928</v>
       </c>
       <c r="D71">
-        <v>0.6073600640129219</v>
+        <v>0.6792906545712897</v>
       </c>
       <c r="E71">
-        <v>0.8582853944938258</v>
+        <v>0.9401241835571885</v>
       </c>
       <c r="F71">
-        <v>0.5868662636904519</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G71">
-        <v>0.596293381326279</v>
+        <v>0.650148706107016</v>
       </c>
       <c r="H71">
-        <v>0.8771833071222398</v>
+        <v>0.7667594244483094</v>
       </c>
       <c r="I71">
-        <v>0.7613553410640724</v>
+        <v>0.7062218779777428</v>
       </c>
       <c r="J71">
-        <v>0.8320541051413347</v>
+        <v>0.8666477499796711</v>
       </c>
       <c r="K71">
-        <v>0.8582853944938258</v>
+        <v>0.6642411367753226</v>
       </c>
       <c r="L71">
-        <v>0.8161440239052553</v>
+        <v>0.7458743832082355</v>
       </c>
       <c r="M71">
-        <v>0.8582853944938258</v>
+        <v>0.7710671595751624</v>
       </c>
       <c r="N71">
-        <v>0.8513332409567781</v>
+        <v>0.8755225566629923</v>
       </c>
       <c r="O71">
-        <v>0.8582853944938258</v>
+        <v>0.7940550714413563</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -3711,46 +3711,46 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7629811970892867</v>
+        <v>0.7198297536335726</v>
       </c>
       <c r="C72">
-        <v>0.7452633714607593</v>
+        <v>0.7826129097102928</v>
       </c>
       <c r="D72">
-        <v>0.6073600640129219</v>
+        <v>0.6792906545712897</v>
       </c>
       <c r="E72">
-        <v>0.8582853944938258</v>
+        <v>0.9401241835571885</v>
       </c>
       <c r="F72">
-        <v>0.5868662636904519</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G72">
-        <v>0.596293381326279</v>
+        <v>0.650148706107016</v>
       </c>
       <c r="H72">
-        <v>0.8771833071222398</v>
+        <v>0.7667594244483094</v>
       </c>
       <c r="I72">
-        <v>0.7613553410640724</v>
+        <v>0.7062218779777428</v>
       </c>
       <c r="J72">
-        <v>0.8320541051413347</v>
+        <v>0.8666477499796711</v>
       </c>
       <c r="K72">
-        <v>0.8582853944938258</v>
+        <v>0.6642411367753226</v>
       </c>
       <c r="L72">
-        <v>0.8161440239052553</v>
+        <v>0.7458743832082355</v>
       </c>
       <c r="M72">
-        <v>0.8582853944938258</v>
+        <v>0.7710671595751624</v>
       </c>
       <c r="N72">
-        <v>0.8513332409567781</v>
+        <v>0.8755225566629923</v>
       </c>
       <c r="O72">
-        <v>0.8582853944938258</v>
+        <v>0.7940550714413563</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3758,46 +3758,46 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7629811970892867</v>
+        <v>0.7198297536335726</v>
       </c>
       <c r="C73">
-        <v>0.7452633714607593</v>
+        <v>0.7826129097102928</v>
       </c>
       <c r="D73">
-        <v>0.6073600640129219</v>
+        <v>0.6792906545712897</v>
       </c>
       <c r="E73">
-        <v>0.8582853944938258</v>
+        <v>0.9401241835571885</v>
       </c>
       <c r="F73">
-        <v>0.5868662636904519</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G73">
-        <v>0.596293381326279</v>
+        <v>0.650148706107016</v>
       </c>
       <c r="H73">
-        <v>0.8771833071222398</v>
+        <v>0.7667594244483094</v>
       </c>
       <c r="I73">
-        <v>0.7613553410640724</v>
+        <v>0.7062218779777428</v>
       </c>
       <c r="J73">
-        <v>0.8320541051413347</v>
+        <v>0.8666477499796711</v>
       </c>
       <c r="K73">
-        <v>0.8582853944938258</v>
+        <v>0.6642411367753226</v>
       </c>
       <c r="L73">
-        <v>0.8161440239052553</v>
+        <v>0.7458743832082355</v>
       </c>
       <c r="M73">
-        <v>0.8582853944938258</v>
+        <v>0.7710671595751624</v>
       </c>
       <c r="N73">
-        <v>0.8513332409567781</v>
+        <v>0.8755225566629923</v>
       </c>
       <c r="O73">
-        <v>0.8582853944938258</v>
+        <v>0.7940550714413563</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -3805,46 +3805,46 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7629811970892867</v>
+        <v>0.7039196723974932</v>
       </c>
       <c r="C74">
-        <v>0.7452633714607593</v>
+        <v>0.7826129097102928</v>
       </c>
       <c r="D74">
-        <v>0.6073600640129219</v>
+        <v>0.6792906545712897</v>
       </c>
       <c r="E74">
-        <v>0.8582853944938258</v>
+        <v>0.897982812968618</v>
       </c>
       <c r="F74">
-        <v>0.5697803877346069</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G74">
-        <v>0.579207505370434</v>
+        <v>0.6286723428212445</v>
       </c>
       <c r="H74">
-        <v>0.8771833071222398</v>
+        <v>0.7098714393978326</v>
       </c>
       <c r="I74">
-        <v>0.7613553410640724</v>
+        <v>0.7062218779777428</v>
       </c>
       <c r="J74">
-        <v>0.8320541051413347</v>
+        <v>0.8017670543694737</v>
       </c>
       <c r="K74">
-        <v>0.8582853944938258</v>
+        <v>0.6086820793396148</v>
       </c>
       <c r="L74">
-        <v>0.8161440239052553</v>
+        <v>0.703733012619665</v>
       </c>
       <c r="M74">
-        <v>0.8582853944938258</v>
+        <v>0.7061864639649651</v>
       </c>
       <c r="N74">
-        <v>0.8513332409567781</v>
+        <v>0.8333811860744218</v>
       </c>
       <c r="O74">
-        <v>0.8582853944938258</v>
+        <v>0.7384960140056486</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -3852,46 +3852,46 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7629811970892867</v>
+        <v>0.7039196723974932</v>
       </c>
       <c r="C75">
-        <v>0.7452633714607593</v>
+        <v>0.7826129097102928</v>
       </c>
       <c r="D75">
-        <v>0.6073600640129219</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E75">
-        <v>0.8582853944938258</v>
+        <v>0.8791872728308373</v>
       </c>
       <c r="F75">
-        <v>0.5697803877346069</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G75">
-        <v>0.579207505370434</v>
+        <v>0.6115389401200468</v>
       </c>
       <c r="H75">
-        <v>0.8350419365336693</v>
+        <v>0.6675595333807094</v>
       </c>
       <c r="I75">
-        <v>0.7414491671113678</v>
+        <v>0.6890884752765452</v>
       </c>
       <c r="J75">
-        <v>0.7899127345527642</v>
+        <v>0.782971514231693</v>
       </c>
       <c r="K75">
-        <v>0.8231098313432268</v>
+        <v>0.5898865392018341</v>
       </c>
       <c r="L75">
-        <v>0.7740026533166848</v>
+        <v>0.6614211066025417</v>
       </c>
       <c r="M75">
-        <v>0.7809684607546563</v>
+        <v>0.6638745579478418</v>
       </c>
       <c r="N75">
-        <v>0.8091918703682076</v>
+        <v>0.8145856459366411</v>
       </c>
       <c r="O75">
-        <v>0.8231098313432268</v>
+        <v>0.7197004738678678</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -3899,46 +3899,46 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7629811970892867</v>
+        <v>0.7039196723974932</v>
       </c>
       <c r="C76">
-        <v>0.7452633714607593</v>
+        <v>0.7678662952483865</v>
       </c>
       <c r="D76">
-        <v>0.6073600640129219</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E76">
-        <v>0.8161440239052553</v>
+        <v>0.8467484140996767</v>
       </c>
       <c r="F76">
-        <v>0.5697803877346069</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G76">
-        <v>0.579207505370434</v>
+        <v>0.6115389401200468</v>
       </c>
       <c r="H76">
-        <v>0.8161440239052553</v>
+        <v>0.6351206746495487</v>
       </c>
       <c r="I76">
-        <v>0.7307843207247683</v>
+        <v>0.6768118557844676</v>
       </c>
       <c r="J76">
-        <v>0.7711171944149835</v>
+        <v>0.7505326555005325</v>
       </c>
       <c r="K76">
-        <v>0.7854163785770321</v>
+        <v>0.5898865392018341</v>
       </c>
       <c r="L76">
-        <v>0.7552071131789041</v>
+        <v>0.6289822478713811</v>
       </c>
       <c r="M76">
-        <v>0.7621729206168756</v>
+        <v>0.6314356992166813</v>
       </c>
       <c r="N76">
-        <v>0.7903963302304269</v>
+        <v>0.7821467872054805</v>
       </c>
       <c r="O76">
-        <v>0.7854163785770321</v>
+        <v>0.7197004738678678</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -3946,46 +3946,46 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7629811970892867</v>
+        <v>0.7039196723974932</v>
       </c>
       <c r="C77">
-        <v>0.7452633714607593</v>
+        <v>0.7678662952483865</v>
       </c>
       <c r="D77">
-        <v>0.6073600640129219</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E77">
-        <v>0.8161440239052553</v>
+        <v>0.8467484140996767</v>
       </c>
       <c r="F77">
-        <v>0.5697803877346069</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G77">
-        <v>0.579207505370434</v>
+        <v>0.6115389401200468</v>
       </c>
       <c r="H77">
-        <v>0.8161440239052553</v>
+        <v>0.6351206746495487</v>
       </c>
       <c r="I77">
-        <v>0.6886429501361978</v>
+        <v>0.6768118557844676</v>
       </c>
       <c r="J77">
-        <v>0.7711171944149835</v>
+        <v>0.7505326555005325</v>
       </c>
       <c r="K77">
-        <v>0.7854163785770321</v>
+        <v>0.5898865392018341</v>
       </c>
       <c r="L77">
-        <v>0.7552071131789041</v>
+        <v>0.6289822478713811</v>
       </c>
       <c r="M77">
-        <v>0.7621729206168756</v>
+        <v>0.6314356992166813</v>
       </c>
       <c r="N77">
-        <v>0.7903963302304269</v>
+        <v>0.7821467872054805</v>
       </c>
       <c r="O77">
-        <v>0.7854163785770321</v>
+        <v>0.7197004738678678</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -3993,46 +3993,46 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7482634879358628</v>
+        <v>0.673724060900289</v>
       </c>
       <c r="C78">
-        <v>0.7031220008721888</v>
+        <v>0.7678662952483865</v>
       </c>
       <c r="D78">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E78">
-        <v>0.7740026533166848</v>
+        <v>0.8284338499378511</v>
       </c>
       <c r="F78">
-        <v>0.5362671384434023</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G78">
-        <v>0.5456942560792294</v>
+        <v>0.5985128673280997</v>
       </c>
       <c r="H78">
-        <v>0.7740026533166848</v>
+        <v>0.6168061104877232</v>
       </c>
       <c r="I78">
-        <v>0.673925240982774</v>
+        <v>0.6466162442872635</v>
       </c>
       <c r="J78">
-        <v>0.7272425969488776</v>
+        <v>0.7100606633503477</v>
       </c>
       <c r="K78">
-        <v>0.7671018144152064</v>
+        <v>0.5494145470516493</v>
       </c>
       <c r="L78">
-        <v>0.694751178428508</v>
+        <v>0.6106676837095556</v>
       </c>
       <c r="M78">
-        <v>0.7438583564550499</v>
+        <v>0.5909637070664965</v>
       </c>
       <c r="N78">
-        <v>0.7720817660686012</v>
+        <v>0.7638322230436548</v>
       </c>
       <c r="O78">
-        <v>0.7671018144152064</v>
+        <v>0.679228481717683</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4040,46 +4040,46 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7482634879358628</v>
+        <v>0.673724060900289</v>
       </c>
       <c r="C79">
-        <v>0.7031220008721888</v>
+        <v>0.7678662952483865</v>
       </c>
       <c r="D79">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E79">
-        <v>0.7740026533166848</v>
+        <v>0.8284338499378511</v>
       </c>
       <c r="F79">
-        <v>0.5362671384434023</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G79">
-        <v>0.5456942560792294</v>
+        <v>0.5985128673280997</v>
       </c>
       <c r="H79">
-        <v>0.7740026533166848</v>
+        <v>0.6168061104877232</v>
       </c>
       <c r="I79">
-        <v>0.673925240982774</v>
+        <v>0.6466162442872635</v>
       </c>
       <c r="J79">
-        <v>0.7272425969488776</v>
+        <v>0.7100606633503477</v>
       </c>
       <c r="K79">
-        <v>0.7671018144152064</v>
+        <v>0.5494145470516493</v>
       </c>
       <c r="L79">
-        <v>0.694751178428508</v>
+        <v>0.6106676837095556</v>
       </c>
       <c r="M79">
-        <v>0.7438583564550499</v>
+        <v>0.5909637070664965</v>
       </c>
       <c r="N79">
-        <v>0.7720817660686012</v>
+        <v>0.7638322230436548</v>
       </c>
       <c r="O79">
-        <v>0.7671018144152064</v>
+        <v>0.679228481717683</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4087,46 +4087,46 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.7482634879358628</v>
+        <v>0.673724060900289</v>
       </c>
       <c r="C80">
-        <v>0.7031220008721888</v>
+        <v>0.7678662952483865</v>
       </c>
       <c r="D80">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E80">
-        <v>0.7740026533166848</v>
+        <v>0.8284338499378511</v>
       </c>
       <c r="F80">
-        <v>0.5362671384434023</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G80">
-        <v>0.5456942560792294</v>
+        <v>0.5985128673280997</v>
       </c>
       <c r="H80">
-        <v>0.7740026533166848</v>
+        <v>0.6168061104877232</v>
       </c>
       <c r="I80">
-        <v>0.673925240982774</v>
+        <v>0.6466162442872635</v>
       </c>
       <c r="J80">
-        <v>0.7272425969488776</v>
+        <v>0.7100606633503477</v>
       </c>
       <c r="K80">
-        <v>0.7671018144152064</v>
+        <v>0.5494145470516493</v>
       </c>
       <c r="L80">
-        <v>0.694751178428508</v>
+        <v>0.6106676837095556</v>
       </c>
       <c r="M80">
-        <v>0.7438583564550499</v>
+        <v>0.5909637070664965</v>
       </c>
       <c r="N80">
-        <v>0.7720817660686012</v>
+        <v>0.7638322230436548</v>
       </c>
       <c r="O80">
-        <v>0.7671018144152064</v>
+        <v>0.679228481717683</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4134,46 +4134,46 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7482634879358628</v>
+        <v>0.673724060900289</v>
       </c>
       <c r="C81">
-        <v>0.7031220008721888</v>
+        <v>0.7678662952483865</v>
       </c>
       <c r="D81">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E81">
-        <v>0.7740026533166848</v>
+        <v>0.8284338499378511</v>
       </c>
       <c r="F81">
-        <v>0.5362671384434023</v>
+        <v>0.7102900298165611</v>
       </c>
       <c r="G81">
-        <v>0.5456942560792294</v>
+        <v>0.5985128673280997</v>
       </c>
       <c r="H81">
-        <v>0.7740026533166848</v>
+        <v>0.6168061104877232</v>
       </c>
       <c r="I81">
-        <v>0.673925240982774</v>
+        <v>0.6466162442872635</v>
       </c>
       <c r="J81">
-        <v>0.7272425969488776</v>
+        <v>0.7100606633503477</v>
       </c>
       <c r="K81">
-        <v>0.7671018144152064</v>
+        <v>0.5494145470516493</v>
       </c>
       <c r="L81">
-        <v>0.694751178428508</v>
+        <v>0.6106676837095556</v>
       </c>
       <c r="M81">
-        <v>0.7438583564550499</v>
+        <v>0.5909637070664965</v>
       </c>
       <c r="N81">
-        <v>0.7720817660686012</v>
+        <v>0.7638322230436548</v>
       </c>
       <c r="O81">
-        <v>0.7671018144152064</v>
+        <v>0.679228481717683</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4181,46 +4181,46 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.6423446456790531</v>
+        <v>0.6334990412972109</v>
       </c>
       <c r="C82">
-        <v>0.6609806302836183</v>
+        <v>0.7678662952483865</v>
       </c>
       <c r="D82">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E82">
-        <v>0.6897199121395439</v>
+        <v>0.8067977488581823</v>
       </c>
       <c r="F82">
-        <v>0.4941257678548319</v>
+        <v>0.6757875937388425</v>
       </c>
       <c r="G82">
-        <v>0.5456942560792294</v>
+        <v>0.5513176943470566</v>
       </c>
       <c r="H82">
-        <v>0.7740026533166848</v>
+        <v>0.5804523002546307</v>
       </c>
       <c r="I82">
-        <v>0.673925240982774</v>
+        <v>0.604474873698693</v>
       </c>
       <c r="J82">
-        <v>0.6662033137318931</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K82">
-        <v>0.7060625311982219</v>
+        <v>0.5246924713108931</v>
       </c>
       <c r="L82">
-        <v>0.6526098078399375</v>
+        <v>0.5890315826298869</v>
       </c>
       <c r="M82">
-        <v>0.640677702649495</v>
+        <v>0.5446055302460717</v>
       </c>
       <c r="N82">
-        <v>0.6877990248914603</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O82">
-        <v>0.7060625311982219</v>
+        <v>0.6545064059769269</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4228,46 +4228,46 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.6161133563265621</v>
+        <v>0.5913576707086404</v>
       </c>
       <c r="C83">
-        <v>0.6158514283027132</v>
+        <v>0.7004615160780455</v>
       </c>
       <c r="D83">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E83">
-        <v>0.641852521707384</v>
+        <v>0.8067977488581823</v>
       </c>
       <c r="F83">
-        <v>0.4941257678548319</v>
+        <v>0.6757875937388425</v>
       </c>
       <c r="G83">
-        <v>0.5456942560792294</v>
+        <v>0.5513176943470566</v>
       </c>
       <c r="H83">
-        <v>0.707237350256111</v>
+        <v>0.5804523002546307</v>
       </c>
       <c r="I83">
-        <v>0.6476939516302829</v>
+        <v>0.604474873698693</v>
       </c>
       <c r="J83">
-        <v>0.5994380106713193</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K83">
-        <v>0.6392972281376481</v>
+        <v>0.5246924713108931</v>
       </c>
       <c r="L83">
-        <v>0.5858445047793637</v>
+        <v>0.5890315826298869</v>
       </c>
       <c r="M83">
-        <v>0.5739123995889212</v>
+        <v>0.5446055302460717</v>
       </c>
       <c r="N83">
-        <v>0.59779026387073</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O83">
-        <v>0.6392972281376481</v>
+        <v>0.6545064059769269</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4275,46 +4275,46 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6161133563265621</v>
+        <v>0.5913576707086404</v>
       </c>
       <c r="C84">
-        <v>0.6158514283027132</v>
+        <v>0.7004615160780455</v>
       </c>
       <c r="D84">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E84">
-        <v>0.641852521707384</v>
+        <v>0.8067977488581823</v>
       </c>
       <c r="F84">
-        <v>0.4941257678548319</v>
+        <v>0.6757875937388425</v>
       </c>
       <c r="G84">
-        <v>0.5456942560792294</v>
+        <v>0.5513176943470566</v>
       </c>
       <c r="H84">
-        <v>0.707237350256111</v>
+        <v>0.5804523002546307</v>
       </c>
       <c r="I84">
-        <v>0.6476939516302829</v>
+        <v>0.604474873698693</v>
       </c>
       <c r="J84">
-        <v>0.5994380106713193</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K84">
-        <v>0.6392972281376481</v>
+        <v>0.5246924713108931</v>
       </c>
       <c r="L84">
-        <v>0.5858445047793637</v>
+        <v>0.5890315826298869</v>
       </c>
       <c r="M84">
-        <v>0.5739123995889212</v>
+        <v>0.5446055302460717</v>
       </c>
       <c r="N84">
-        <v>0.59779026387073</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O84">
-        <v>0.6392972281376481</v>
+        <v>0.6545064059769269</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4322,46 +4322,46 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6161133563265621</v>
+        <v>0.5913576707086404</v>
       </c>
       <c r="C85">
-        <v>0.6158514283027132</v>
+        <v>0.7004615160780455</v>
       </c>
       <c r="D85">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E85">
-        <v>0.641852521707384</v>
+        <v>0.8067977488581823</v>
       </c>
       <c r="F85">
-        <v>0.4941257678548319</v>
+        <v>0.6757875937388425</v>
       </c>
       <c r="G85">
-        <v>0.5456942560792294</v>
+        <v>0.5513176943470566</v>
       </c>
       <c r="H85">
-        <v>0.707237350256111</v>
+        <v>0.5804523002546307</v>
       </c>
       <c r="I85">
-        <v>0.6476939516302829</v>
+        <v>0.604474873698693</v>
       </c>
       <c r="J85">
-        <v>0.5994380106713193</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K85">
-        <v>0.6392972281376481</v>
+        <v>0.5246924713108931</v>
       </c>
       <c r="L85">
-        <v>0.5858445047793637</v>
+        <v>0.5890315826298869</v>
       </c>
       <c r="M85">
-        <v>0.5739123995889212</v>
+        <v>0.5446055302460717</v>
       </c>
       <c r="N85">
-        <v>0.59779026387073</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O85">
-        <v>0.6392972281376481</v>
+        <v>0.6545064059769269</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4369,46 +4369,46 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6161133563265621</v>
+        <v>0.5913576707086404</v>
       </c>
       <c r="C86">
-        <v>0.6158514283027132</v>
+        <v>0.7004615160780455</v>
       </c>
       <c r="D86">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E86">
-        <v>0.641852521707384</v>
+        <v>0.8067977488581823</v>
       </c>
       <c r="F86">
-        <v>0.4941257678548319</v>
+        <v>0.6757875937388425</v>
       </c>
       <c r="G86">
-        <v>0.5456942560792294</v>
+        <v>0.5513176943470566</v>
       </c>
       <c r="H86">
-        <v>0.707237350256111</v>
+        <v>0.5804523002546307</v>
       </c>
       <c r="I86">
-        <v>0.6476939516302829</v>
+        <v>0.604474873698693</v>
       </c>
       <c r="J86">
-        <v>0.5994380106713193</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K86">
-        <v>0.6392972281376481</v>
+        <v>0.5246924713108931</v>
       </c>
       <c r="L86">
-        <v>0.5858445047793637</v>
+        <v>0.5890315826298869</v>
       </c>
       <c r="M86">
-        <v>0.5739123995889212</v>
+        <v>0.5446055302460717</v>
       </c>
       <c r="N86">
-        <v>0.59779026387073</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O86">
-        <v>0.6392972281376481</v>
+        <v>0.6545064059769269</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4416,46 +4416,46 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.6161133563265621</v>
+        <v>0.5913576707086404</v>
       </c>
       <c r="C87">
-        <v>0.6158514283027132</v>
+        <v>0.658320145489475</v>
       </c>
       <c r="D87">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E87">
-        <v>0.62295460907897</v>
+        <v>0.7646563782696119</v>
       </c>
       <c r="F87">
-        <v>0.4941257678548319</v>
+        <v>0.6757875937388425</v>
       </c>
       <c r="G87">
-        <v>0.5456942560792294</v>
+        <v>0.5513176943470566</v>
       </c>
       <c r="H87">
-        <v>0.6695438974899164</v>
+        <v>0.5114404054308618</v>
       </c>
       <c r="I87">
-        <v>0.6476939516302829</v>
+        <v>0.604474873698693</v>
       </c>
       <c r="J87">
-        <v>0.5994380106713193</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K87">
-        <v>0.6016037753714534</v>
+        <v>0.505794558682479</v>
       </c>
       <c r="L87">
-        <v>0.5669465921509497</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M87">
-        <v>0.5550144869605071</v>
+        <v>0.5446055302460717</v>
       </c>
       <c r="N87">
-        <v>0.578892351242316</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O87">
-        <v>0.6016037753714534</v>
+        <v>0.6356084933485129</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4463,46 +4463,46 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6161133563265621</v>
+        <v>0.5913576707086404</v>
       </c>
       <c r="C88">
-        <v>0.6158514283027132</v>
+        <v>0.658320145489475</v>
       </c>
       <c r="D88">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E88">
-        <v>0.62295460907897</v>
+        <v>0.7646563782696119</v>
       </c>
       <c r="F88">
-        <v>0.4941257678548319</v>
+        <v>0.6757875937388425</v>
       </c>
       <c r="G88">
-        <v>0.5456942560792294</v>
+        <v>0.5513176943470566</v>
       </c>
       <c r="H88">
-        <v>0.6695438974899164</v>
+        <v>0.5114404054308618</v>
       </c>
       <c r="I88">
-        <v>0.6476939516302829</v>
+        <v>0.604474873698693</v>
       </c>
       <c r="J88">
-        <v>0.5994380106713193</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K88">
-        <v>0.6016037753714534</v>
+        <v>0.505794558682479</v>
       </c>
       <c r="L88">
-        <v>0.5669465921509497</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M88">
-        <v>0.5550144869605071</v>
+        <v>0.5446055302460717</v>
       </c>
       <c r="N88">
-        <v>0.578892351242316</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O88">
-        <v>0.6016037753714534</v>
+        <v>0.6356084933485129</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4510,46 +4510,46 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6161133563265621</v>
+        <v>0.5913576707086404</v>
       </c>
       <c r="C89">
-        <v>0.5667579041770949</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D89">
-        <v>0.592642354859498</v>
+        <v>0.6621572518700921</v>
       </c>
       <c r="E89">
-        <v>0.5738610849533519</v>
+        <v>0.7646563782696119</v>
       </c>
       <c r="F89">
-        <v>0.4941257678548319</v>
+        <v>0.6757875937388425</v>
       </c>
       <c r="G89">
-        <v>0.5456942560792294</v>
+        <v>0.5513176943470566</v>
       </c>
       <c r="H89">
-        <v>0.6086069867635652</v>
+        <v>0.5114404054308618</v>
       </c>
       <c r="I89">
-        <v>0.6476939516302829</v>
+        <v>0.604474873698693</v>
       </c>
       <c r="J89">
-        <v>0.5806424705335386</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K89">
-        <v>0.5828082352336726</v>
+        <v>0.4553582234963947</v>
       </c>
       <c r="L89">
-        <v>0.5481510520131689</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M89">
-        <v>0.5362189468227264</v>
+        <v>0.5446055302460717</v>
       </c>
       <c r="N89">
-        <v>0.578892351242316</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O89">
-        <v>0.5828082352336726</v>
+        <v>0.5851721581624285</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4557,46 +4557,46 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.6161133563265621</v>
+        <v>0.5913576707086404</v>
       </c>
       <c r="C90">
-        <v>0.5667579041770949</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D90">
-        <v>0.557466791708899</v>
+        <v>0.6200158812815216</v>
       </c>
       <c r="E90">
-        <v>0.5436654734561477</v>
+        <v>0.7225150076810414</v>
       </c>
       <c r="F90">
-        <v>0.4941257678548319</v>
+        <v>0.633646223150272</v>
       </c>
       <c r="G90">
-        <v>0.5456942560792294</v>
+        <v>0.5091763237584861</v>
       </c>
       <c r="H90">
-        <v>0.5784113752663609</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I90">
-        <v>0.6476939516302829</v>
+        <v>0.5623335031101225</v>
       </c>
       <c r="J90">
-        <v>0.5806424705335386</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K90">
-        <v>0.5526126237364685</v>
+        <v>0.4334579329244987</v>
       </c>
       <c r="L90">
-        <v>0.5179554405159648</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M90">
-        <v>0.5060233353255221</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N90">
-        <v>0.5486967397451119</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O90">
-        <v>0.5526126237364685</v>
+        <v>0.5632718675905326</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4604,46 +4604,46 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6161133563265621</v>
+        <v>0.5913576707086404</v>
       </c>
       <c r="C91">
-        <v>0.5479623640393142</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D91">
-        <v>0.557466791708899</v>
+        <v>0.6200158812815216</v>
       </c>
       <c r="E91">
-        <v>0.5436654734561477</v>
+        <v>0.7225150076810414</v>
       </c>
       <c r="F91">
-        <v>0.4941257678548319</v>
+        <v>0.633646223150272</v>
       </c>
       <c r="G91">
-        <v>0.5456942560792294</v>
+        <v>0.5091763237584861</v>
       </c>
       <c r="H91">
-        <v>0.5179554405159648</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I91">
-        <v>0.6476939516302829</v>
+        <v>0.5623335031101225</v>
       </c>
       <c r="J91">
-        <v>0.5201865357831424</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K91">
-        <v>0.4921566889860723</v>
+        <v>0.4334579329244987</v>
       </c>
       <c r="L91">
-        <v>0.4574995057655686</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M91">
-        <v>0.4455674005751261</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N91">
-        <v>0.5065553691565413</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O91">
-        <v>0.4921566889860723</v>
+        <v>0.5632718675905326</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -4651,46 +4651,46 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6161133563265621</v>
+        <v>0.5913576707086404</v>
       </c>
       <c r="C92">
-        <v>0.5479623640393142</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D92">
-        <v>0.557466791708899</v>
+        <v>0.6200158812815216</v>
       </c>
       <c r="E92">
-        <v>0.5436654734561477</v>
+        <v>0.7225150076810414</v>
       </c>
       <c r="F92">
-        <v>0.4941257678548319</v>
+        <v>0.633646223150272</v>
       </c>
       <c r="G92">
-        <v>0.5456942560792294</v>
+        <v>0.5091763237584861</v>
       </c>
       <c r="H92">
-        <v>0.5179554405159648</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I92">
-        <v>0.6476939516302829</v>
+        <v>0.5623335031101225</v>
       </c>
       <c r="J92">
-        <v>0.5201865357831424</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K92">
-        <v>0.4921566889860723</v>
+        <v>0.4334579329244987</v>
       </c>
       <c r="L92">
-        <v>0.4574995057655686</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M92">
-        <v>0.4455674005751261</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N92">
-        <v>0.5065553691565413</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O92">
-        <v>0.4921566889860723</v>
+        <v>0.5632718675905326</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -4698,46 +4698,46 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6161133563265621</v>
+        <v>0.5651263813561493</v>
       </c>
       <c r="C93">
-        <v>0.5479623640393142</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D93">
-        <v>0.4887805988783795</v>
+        <v>0.5724784397140168</v>
       </c>
       <c r="E93">
-        <v>0.5015241028675772</v>
+        <v>0.6896952752669604</v>
       </c>
       <c r="F93">
-        <v>0.4941257678548319</v>
+        <v>0.5861087815827671</v>
       </c>
       <c r="G93">
-        <v>0.5456942560792294</v>
+        <v>0.4616388821909813</v>
       </c>
       <c r="H93">
-        <v>0.5179554405159648</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I93">
-        <v>0.6055525810417123</v>
+        <v>0.5147960615426176</v>
       </c>
       <c r="J93">
-        <v>0.5201865357831424</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K93">
-        <v>0.4921566889860723</v>
+        <v>0.4334579329244987</v>
       </c>
       <c r="L93">
-        <v>0.4574995057655686</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M93">
-        <v>0.4455674005751261</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N93">
-        <v>0.5065553691565413</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O93">
-        <v>0.4921566889860723</v>
+        <v>0.5632718675905326</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -4745,46 +4745,46 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6161133563265621</v>
+        <v>0.5446974326674566</v>
       </c>
       <c r="C94">
-        <v>0.5479623640393142</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D94">
-        <v>0.4688744249256749</v>
+        <v>0.5578404583364631</v>
       </c>
       <c r="E94">
-        <v>0.5015241028675772</v>
+        <v>0.6896952752669604</v>
       </c>
       <c r="F94">
-        <v>0.4941257678548319</v>
+        <v>0.5714708002052135</v>
       </c>
       <c r="G94">
-        <v>0.5456942560792294</v>
+        <v>0.4470009008134277</v>
       </c>
       <c r="H94">
-        <v>0.5179554405159648</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I94">
-        <v>0.6055525810417123</v>
+        <v>0.5001580801650639</v>
       </c>
       <c r="J94">
-        <v>0.5201865357831424</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K94">
-        <v>0.4921566889860723</v>
+        <v>0.4245858262644924</v>
       </c>
       <c r="L94">
-        <v>0.4574995057655686</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M94">
-        <v>0.4455674005751261</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N94">
-        <v>0.5065553691565413</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O94">
-        <v>0.4921566889860723</v>
+        <v>0.5543997609305262</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -4792,46 +4792,46 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6161133563265621</v>
+        <v>0.5446974326674566</v>
       </c>
       <c r="C95">
-        <v>0.5479623640393142</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D95">
-        <v>0.4688744249256749</v>
+        <v>0.5578404583364631</v>
       </c>
       <c r="E95">
-        <v>0.5015241028675772</v>
+        <v>0.6896952752669604</v>
       </c>
       <c r="F95">
-        <v>0.4941257678548319</v>
+        <v>0.5714708002052135</v>
       </c>
       <c r="G95">
-        <v>0.5456942560792294</v>
+        <v>0.4470009008134277</v>
       </c>
       <c r="H95">
-        <v>0.5179554405159648</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I95">
-        <v>0.6055525810417123</v>
+        <v>0.5001580801650639</v>
       </c>
       <c r="J95">
-        <v>0.5201865357831424</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K95">
-        <v>0.4921566889860723</v>
+        <v>0.4245858262644924</v>
       </c>
       <c r="L95">
-        <v>0.4574995057655686</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M95">
-        <v>0.4455674005751261</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N95">
-        <v>0.5065553691565413</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O95">
-        <v>0.4921566889860723</v>
+        <v>0.5543997609305262</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -4839,46 +4839,46 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6161133563265621</v>
+        <v>0.5446974326674566</v>
       </c>
       <c r="C96">
-        <v>0.5479623640393142</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D96">
-        <v>0.4688744249256749</v>
+        <v>0.5578404583364631</v>
       </c>
       <c r="E96">
-        <v>0.5015241028675772</v>
+        <v>0.6896952752669604</v>
       </c>
       <c r="F96">
-        <v>0.4941257678548319</v>
+        <v>0.5714708002052135</v>
       </c>
       <c r="G96">
-        <v>0.5456942560792294</v>
+        <v>0.4470009008134277</v>
       </c>
       <c r="H96">
-        <v>0.5179554405159648</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I96">
-        <v>0.6055525810417123</v>
+        <v>0.5001580801650639</v>
       </c>
       <c r="J96">
-        <v>0.5201865357831424</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K96">
-        <v>0.4921566889860723</v>
+        <v>0.4245858262644924</v>
       </c>
       <c r="L96">
-        <v>0.4574995057655686</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M96">
-        <v>0.4455674005751261</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N96">
-        <v>0.5065553691565413</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O96">
-        <v>0.4921566889860723</v>
+        <v>0.5543997609305262</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -4886,46 +4886,46 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.6161133563265621</v>
+        <v>0.5446974326674566</v>
       </c>
       <c r="C97">
-        <v>0.5479623640393142</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D97">
-        <v>0.4688744249256749</v>
+        <v>0.5578404583364631</v>
       </c>
       <c r="E97">
-        <v>0.5015241028675772</v>
+        <v>0.6896952752669604</v>
       </c>
       <c r="F97">
-        <v>0.4941257678548319</v>
+        <v>0.5714708002052135</v>
       </c>
       <c r="G97">
-        <v>0.5456942560792294</v>
+        <v>0.4470009008134277</v>
       </c>
       <c r="H97">
-        <v>0.5179554405159648</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I97">
-        <v>0.6055525810417123</v>
+        <v>0.5001580801650639</v>
       </c>
       <c r="J97">
-        <v>0.5201865357831424</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K97">
-        <v>0.4921566889860723</v>
+        <v>0.4245858262644924</v>
       </c>
       <c r="L97">
-        <v>0.4574995057655686</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M97">
-        <v>0.4455674005751261</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N97">
-        <v>0.5065553691565413</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O97">
-        <v>0.4921566889860723</v>
+        <v>0.5543997609305262</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -4933,46 +4933,46 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6161133563265621</v>
+        <v>0.5446974326674566</v>
       </c>
       <c r="C98">
-        <v>0.5479623640393142</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D98">
-        <v>0.4688744249256749</v>
+        <v>0.5578404583364631</v>
       </c>
       <c r="E98">
-        <v>0.5015241028675772</v>
+        <v>0.6896952752669604</v>
       </c>
       <c r="F98">
-        <v>0.4941257678548319</v>
+        <v>0.5714708002052135</v>
       </c>
       <c r="G98">
-        <v>0.5456942560792294</v>
+        <v>0.4470009008134277</v>
       </c>
       <c r="H98">
-        <v>0.5179554405159648</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I98">
-        <v>0.6055525810417123</v>
+        <v>0.5001580801650639</v>
       </c>
       <c r="J98">
-        <v>0.5201865357831424</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K98">
-        <v>0.4921566889860723</v>
+        <v>0.4245858262644924</v>
       </c>
       <c r="L98">
-        <v>0.4574995057655686</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M98">
-        <v>0.4455674005751261</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N98">
-        <v>0.5065553691565413</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O98">
-        <v>0.4921566889860723</v>
+        <v>0.5543997609305262</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -4980,46 +4980,46 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6161133563265621</v>
+        <v>0.5446974326674566</v>
       </c>
       <c r="C99">
-        <v>0.5479623640393142</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D99">
-        <v>0.4688744249256749</v>
+        <v>0.5578404583364631</v>
       </c>
       <c r="E99">
-        <v>0.5015241028675772</v>
+        <v>0.6896952752669604</v>
       </c>
       <c r="F99">
-        <v>0.4941257678548319</v>
+        <v>0.5714708002052135</v>
       </c>
       <c r="G99">
-        <v>0.5456942560792294</v>
+        <v>0.4470009008134277</v>
       </c>
       <c r="H99">
-        <v>0.5179554405159648</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I99">
-        <v>0.6055525810417123</v>
+        <v>0.5001580801650639</v>
       </c>
       <c r="J99">
-        <v>0.5201865357831424</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K99">
-        <v>0.4921566889860723</v>
+        <v>0.4245858262644924</v>
       </c>
       <c r="L99">
-        <v>0.4574995057655686</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M99">
-        <v>0.4455674005751261</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N99">
-        <v>0.5065553691565413</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O99">
-        <v>0.4921566889860723</v>
+        <v>0.5543997609305262</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5027,46 +5027,46 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6161133563265621</v>
+        <v>0.5446974326674566</v>
       </c>
       <c r="C100">
-        <v>0.5479623640393142</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D100">
-        <v>0.4688744249256749</v>
+        <v>0.5578404583364631</v>
       </c>
       <c r="E100">
-        <v>0.5015241028675772</v>
+        <v>0.6896952752669604</v>
       </c>
       <c r="F100">
-        <v>0.4941257678548319</v>
+        <v>0.5714708002052135</v>
       </c>
       <c r="G100">
-        <v>0.5456942560792294</v>
+        <v>0.4470009008134277</v>
       </c>
       <c r="H100">
-        <v>0.5179554405159648</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I100">
-        <v>0.6055525810417123</v>
+        <v>0.5001580801650639</v>
       </c>
       <c r="J100">
-        <v>0.5201865357831424</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K100">
-        <v>0.4921566889860723</v>
+        <v>0.4157181794199599</v>
       </c>
       <c r="L100">
-        <v>0.4574995057655686</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M100">
-        <v>0.4455674005751261</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N100">
-        <v>0.5065553691565413</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O100">
-        <v>0.4921566889860723</v>
+        <v>0.5455321140859937</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5074,46 +5074,46 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6161133563265621</v>
+        <v>0.5446974326674566</v>
       </c>
       <c r="C101">
-        <v>0.5479623640393142</v>
+        <v>0.641469933026017</v>
       </c>
       <c r="D101">
-        <v>0.4688744249256749</v>
+        <v>0.5578404583364631</v>
       </c>
       <c r="E101">
-        <v>0.5015241028675772</v>
+        <v>0.6896952752669604</v>
       </c>
       <c r="F101">
-        <v>0.4941257678548319</v>
+        <v>0.5714708002052135</v>
       </c>
       <c r="G101">
-        <v>0.5456942560792294</v>
+        <v>0.4470009008134277</v>
       </c>
       <c r="H101">
-        <v>0.5179554405159648</v>
+        <v>0.4895401148589659</v>
       </c>
       <c r="I101">
-        <v>0.6055525810417123</v>
+        <v>0.5001580801650639</v>
       </c>
       <c r="J101">
-        <v>0.5201865357831424</v>
+        <v>0.6637024865299228</v>
       </c>
       <c r="K101">
-        <v>0.4500153183975018</v>
+        <v>0.4157181794199599</v>
       </c>
       <c r="L101">
-        <v>0.4574995057655686</v>
+        <v>0.5200196878061181</v>
       </c>
       <c r="M101">
-        <v>0.4455674005751261</v>
+        <v>0.5227052396741758</v>
       </c>
       <c r="N101">
-        <v>0.5065553691565413</v>
+        <v>0.7174740462232301</v>
       </c>
       <c r="O101">
-        <v>0.4500153183975018</v>
+        <v>0.5455321140859937</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5121,46 +5121,46 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.5739719857379916</v>
+        <v>0.524791258714752</v>
       </c>
       <c r="C102">
-        <v>0.5479623640393142</v>
+        <v>0.5993285624374465</v>
       </c>
       <c r="D102">
-        <v>0.4688744249256749</v>
+        <v>0.5578404583364631</v>
       </c>
       <c r="E102">
-        <v>0.4593827322790067</v>
+        <v>0.6896952752669604</v>
       </c>
       <c r="F102">
-        <v>0.4941257678548319</v>
+        <v>0.5293294296166431</v>
       </c>
       <c r="G102">
-        <v>0.5456942560792294</v>
+        <v>0.4048595302248572</v>
       </c>
       <c r="H102">
-        <v>0.4758140699273942</v>
+        <v>0.474933038068299</v>
       </c>
       <c r="I102">
-        <v>0.6055525810417123</v>
+        <v>0.4580167095764935</v>
       </c>
       <c r="J102">
-        <v>0.478045165194572</v>
+        <v>0.6215611159413523</v>
       </c>
       <c r="K102">
-        <v>0.3816426584564401</v>
+        <v>0.3922516080398403</v>
       </c>
       <c r="L102">
-        <v>0.4153581351769982</v>
+        <v>0.4357369466289771</v>
       </c>
       <c r="M102">
-        <v>0.4034260299865555</v>
+        <v>0.3816740511177975</v>
       </c>
       <c r="N102">
-        <v>0.4644139985679708</v>
+        <v>0.6753326756346596</v>
       </c>
       <c r="O102">
-        <v>0.4078739478089312</v>
+        <v>0.4799241721173035</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5168,46 +5168,46 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.5739719857379916</v>
+        <v>0.505893346086338</v>
       </c>
       <c r="C103">
-        <v>0.5291668239015335</v>
+        <v>0.5804306498090324</v>
       </c>
       <c r="D103">
-        <v>0.4688744249256749</v>
+        <v>0.5156990877478925</v>
       </c>
       <c r="E103">
-        <v>0.4405871921412259</v>
+        <v>0.6707973626385464</v>
       </c>
       <c r="F103">
-        <v>0.4941257678548319</v>
+        <v>0.4871880590280726</v>
       </c>
       <c r="G103">
-        <v>0.5456942560792294</v>
+        <v>0.3627181596362867</v>
       </c>
       <c r="H103">
-        <v>0.4758140699273942</v>
+        <v>0.456035125439885</v>
       </c>
       <c r="I103">
-        <v>0.6055525810417123</v>
+        <v>0.3969774263595089</v>
       </c>
       <c r="J103">
-        <v>0.478045165194572</v>
+        <v>0.6215611159413523</v>
       </c>
       <c r="K103">
-        <v>0.3617364845037355</v>
+        <v>0.3660203186873492</v>
       </c>
       <c r="L103">
-        <v>0.4153581351769982</v>
+        <v>0.4357369466289771</v>
       </c>
       <c r="M103">
-        <v>0.3835198560338509</v>
+        <v>0.3816740511177975</v>
       </c>
       <c r="N103">
-        <v>0.4644139985679708</v>
+        <v>0.6753326756346596</v>
       </c>
       <c r="O103">
-        <v>0.3732211593943203</v>
+        <v>0.4536928827648125</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5215,46 +5215,46 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.5739719857379916</v>
+        <v>0.505893346086338</v>
       </c>
       <c r="C104">
-        <v>0.5291668239015335</v>
+        <v>0.5804306498090324</v>
       </c>
       <c r="D104">
-        <v>0.4688744249256749</v>
+        <v>0.5156990877478925</v>
       </c>
       <c r="E104">
-        <v>0.4405871921412259</v>
+        <v>0.6707973626385464</v>
       </c>
       <c r="F104">
-        <v>0.4941257678548319</v>
+        <v>0.4871880590280726</v>
       </c>
       <c r="G104">
-        <v>0.5456942560792294</v>
+        <v>0.3627181596362867</v>
       </c>
       <c r="H104">
-        <v>0.4758140699273942</v>
+        <v>0.456035125439885</v>
       </c>
       <c r="I104">
-        <v>0.6055525810417123</v>
+        <v>0.3969774263595089</v>
       </c>
       <c r="J104">
-        <v>0.478045165194572</v>
+        <v>0.6215611159413523</v>
       </c>
       <c r="K104">
-        <v>0.3617364845037355</v>
+        <v>0.3660203186873492</v>
       </c>
       <c r="L104">
-        <v>0.4153581351769982</v>
+        <v>0.4357369466289771</v>
       </c>
       <c r="M104">
-        <v>0.3835198560338509</v>
+        <v>0.3816740511177975</v>
       </c>
       <c r="N104">
-        <v>0.4644139985679708</v>
+        <v>0.6753326756346596</v>
       </c>
       <c r="O104">
-        <v>0.3732211593943203</v>
+        <v>0.4536928827648125</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5262,46 +5262,46 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.5739719857379916</v>
+        <v>0.505893346086338</v>
       </c>
       <c r="C105">
-        <v>0.4870254533129629</v>
+        <v>0.5382892792204619</v>
       </c>
       <c r="D105">
-        <v>0.4140285964283157</v>
+        <v>0.5156990877478925</v>
       </c>
       <c r="E105">
-        <v>0.3984458215526554</v>
+        <v>0.6707973626385464</v>
       </c>
       <c r="F105">
-        <v>0.4519843972662614</v>
+        <v>0.4871880590280726</v>
       </c>
       <c r="G105">
-        <v>0.5035528854906589</v>
+        <v>0.3627181596362867</v>
       </c>
       <c r="H105">
-        <v>0.4336726993388237</v>
+        <v>0.456035125439885</v>
       </c>
       <c r="I105">
-        <v>0.5634112104531418</v>
+        <v>0.3969774263595089</v>
       </c>
       <c r="J105">
-        <v>0.4478495536973678</v>
+        <v>0.579419745352782</v>
       </c>
       <c r="K105">
-        <v>0.3315408730065313</v>
+        <v>0.3660203186873492</v>
       </c>
       <c r="L105">
-        <v>0.3732167645884276</v>
+        <v>0.4357369466289771</v>
       </c>
       <c r="M105">
-        <v>0.3533242445366467</v>
+        <v>0.3816740511177975</v>
       </c>
       <c r="N105">
-        <v>0.4644139985679708</v>
+        <v>0.6331913050460891</v>
       </c>
       <c r="O105">
-        <v>0.3430255478971161</v>
+        <v>0.4536928827648125</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5309,46 +5309,46 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.5739719857379916</v>
+        <v>0.4375206861452764</v>
       </c>
       <c r="C106">
-        <v>0.4870254533129629</v>
+        <v>0.5382892792204619</v>
       </c>
       <c r="D106">
-        <v>0.4140285964283157</v>
+        <v>0.4735577171593221</v>
       </c>
       <c r="E106">
-        <v>0.3984458215526554</v>
+        <v>0.6286559920499759</v>
       </c>
       <c r="F106">
-        <v>0.4519843972662614</v>
+        <v>0.4871880590280726</v>
       </c>
       <c r="G106">
-        <v>0.5035528854906589</v>
+        <v>0.3627181596362867</v>
       </c>
       <c r="H106">
-        <v>0.4336726993388237</v>
+        <v>0.456035125439885</v>
       </c>
       <c r="I106">
-        <v>0.5634112104531418</v>
+        <v>0.3969774263595089</v>
       </c>
       <c r="J106">
-        <v>0.4057081831087973</v>
+        <v>0.5110470854117203</v>
       </c>
       <c r="K106">
-        <v>0.3315408730065313</v>
+        <v>0.3660203186873492</v>
       </c>
       <c r="L106">
-        <v>0.3732167645884276</v>
+        <v>0.3935955760404066</v>
       </c>
       <c r="M106">
-        <v>0.3533242445366467</v>
+        <v>0.3816740511177975</v>
       </c>
       <c r="N106">
-        <v>0.4222726279794004</v>
+        <v>0.5648186451050274</v>
       </c>
       <c r="O106">
-        <v>0.3430255478971161</v>
+        <v>0.4536928827648125</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5356,46 +5356,46 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.5318306151494211</v>
+        <v>0.4375206861452764</v>
       </c>
       <c r="C107">
-        <v>0.4870254533129629</v>
+        <v>0.5120579898679708</v>
       </c>
       <c r="D107">
-        <v>0.359507873727165</v>
+        <v>0.4735577171593221</v>
       </c>
       <c r="E107">
-        <v>0.3984458215526554</v>
+        <v>0.6286559920499759</v>
       </c>
       <c r="F107">
-        <v>0.4098430266776909</v>
+        <v>0.4609567696755815</v>
       </c>
       <c r="G107">
-        <v>0.4614115149020884</v>
+        <v>0.3627181596362867</v>
       </c>
       <c r="H107">
-        <v>0.4336726993388237</v>
+        <v>0.456035125439885</v>
       </c>
       <c r="I107">
-        <v>0.5212698398645713</v>
+        <v>0.3969774263595089</v>
       </c>
       <c r="J107">
-        <v>0.3635668125202268</v>
+        <v>0.4854870521074401</v>
       </c>
       <c r="K107">
-        <v>0.3315408730065313</v>
+        <v>0.3660203186873492</v>
       </c>
       <c r="L107">
-        <v>0.3732167645884276</v>
+        <v>0.3935955760404066</v>
       </c>
       <c r="M107">
-        <v>0.3533242445366467</v>
+        <v>0.3816740511177975</v>
       </c>
       <c r="N107">
-        <v>0.4222726279794004</v>
+        <v>0.5392586118007472</v>
       </c>
       <c r="O107">
-        <v>0.3430255478971161</v>
+        <v>0.4536928827648125</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5403,46 +5403,46 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.5318306151494211</v>
+        <v>0.3698192822524256</v>
       </c>
       <c r="C108">
-        <v>0.4870254533129629</v>
+        <v>0.4443565859751201</v>
       </c>
       <c r="D108">
-        <v>0.359507873727165</v>
+        <v>0.4735577171593221</v>
       </c>
       <c r="E108">
-        <v>0.3984458215526554</v>
+        <v>0.6286559920499759</v>
       </c>
       <c r="F108">
-        <v>0.4098430266776909</v>
+        <v>0.3932553657827307</v>
       </c>
       <c r="G108">
-        <v>0.4614115149020884</v>
+        <v>0.3205767890477161</v>
       </c>
       <c r="H108">
-        <v>0.4336726993388237</v>
+        <v>0.456035125439885</v>
       </c>
       <c r="I108">
-        <v>0.5212698398645713</v>
+        <v>0.3969774263595089</v>
       </c>
       <c r="J108">
-        <v>0.3635668125202268</v>
+        <v>0.4854870521074401</v>
       </c>
       <c r="K108">
-        <v>0.305980839702251</v>
+        <v>0.3463028274285285</v>
       </c>
       <c r="L108">
-        <v>0.3732167645884276</v>
+        <v>0.3935955760404066</v>
       </c>
       <c r="M108">
-        <v>0.3533242445366467</v>
+        <v>0.3816740511177975</v>
       </c>
       <c r="N108">
-        <v>0.4222726279794004</v>
+        <v>0.5392586118007472</v>
       </c>
       <c r="O108">
-        <v>0.3430255478971161</v>
+        <v>0.4339753915059918</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5450,46 +5450,46 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.4896892445608506</v>
+        <v>0.3698192822524256</v>
       </c>
       <c r="C109">
-        <v>0.4265695185625669</v>
+        <v>0.4443565859751201</v>
       </c>
       <c r="D109">
-        <v>0.359507873727165</v>
+        <v>0.4314163465707517</v>
       </c>
       <c r="E109">
-        <v>0.3801312573908298</v>
+        <v>0.5865146214614054</v>
       </c>
       <c r="F109">
-        <v>0.3677016560891204</v>
+        <v>0.3511139951941601</v>
       </c>
       <c r="G109">
-        <v>0.4192701443135179</v>
+        <v>0.3205767890477161</v>
       </c>
       <c r="H109">
-        <v>0.3915313287502532</v>
+        <v>0.4138937548513144</v>
       </c>
       <c r="I109">
-        <v>0.4791284692760008</v>
+        <v>0.3548360557709385</v>
       </c>
       <c r="J109">
-        <v>0.3635668125202268</v>
+        <v>0.4433456815188695</v>
       </c>
       <c r="K109">
-        <v>0.305980839702251</v>
+        <v>0.3207427941242483</v>
       </c>
       <c r="L109">
-        <v>0.3310753939998571</v>
+        <v>0.3935955760404066</v>
       </c>
       <c r="M109">
-        <v>0.3533242445366467</v>
+        <v>0.3395326805292269</v>
       </c>
       <c r="N109">
-        <v>0.3801312573908298</v>
+        <v>0.4971172412121768</v>
       </c>
       <c r="O109">
-        <v>0.3177621393153455</v>
+        <v>0.366273987613141</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -5497,46 +5497,46 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.4475478739722801</v>
+        <v>0.3396236707552214</v>
       </c>
       <c r="C110">
-        <v>0.3844281479739963</v>
+        <v>0.4141609744779159</v>
       </c>
       <c r="D110">
-        <v>0.3173665031385945</v>
+        <v>0.3471336053936106</v>
       </c>
       <c r="E110">
-        <v>0.3379898868022593</v>
+        <v>0.4720362687870602</v>
       </c>
       <c r="F110">
-        <v>0.3677016560891204</v>
+        <v>0.3511139951941601</v>
       </c>
       <c r="G110">
-        <v>0.3771287737249474</v>
+        <v>0.3205767890477161</v>
       </c>
       <c r="H110">
-        <v>0.3493899581616827</v>
+        <v>0.3415567727655398</v>
       </c>
       <c r="I110">
-        <v>0.4791284692760008</v>
+        <v>0.3246404442737343</v>
       </c>
       <c r="J110">
-        <v>0.3635668125202268</v>
+        <v>0.3590629403417286</v>
       </c>
       <c r="K110">
-        <v>0.305980839702251</v>
+        <v>0.2786014235356778</v>
       </c>
       <c r="L110">
-        <v>0.3310753939998571</v>
+        <v>0.3093128348632656</v>
       </c>
       <c r="M110">
-        <v>0.3533242445366467</v>
+        <v>0.2973913099406564</v>
       </c>
       <c r="N110">
-        <v>0.3801312573908298</v>
+        <v>0.4128345000350357</v>
       </c>
       <c r="O110">
-        <v>0.3009119268518875</v>
+        <v>0.3241326170245705</v>
       </c>
     </row>
   </sheetData>
